--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8599" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9A90D6E-2588-4C54-AB03-4496EAE5BFED}"/>
+  <xr:revisionPtr revIDLastSave="8646" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C13B1060-7EB4-4462-AD8A-3629E2A90124}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
     <sheet name="2019" sheetId="26" r:id="rId2"/>
     <sheet name="2020" sheetId="27" r:id="rId3"/>
     <sheet name="2021" sheetId="28" r:id="rId4"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId5"/>
-    <sheet name="YTD Wins-Losses" sheetId="31" r:id="rId6"/>
-    <sheet name="Winning Percentile Range" sheetId="32" r:id="rId7"/>
+    <sheet name="2022" sheetId="33" r:id="rId5"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId6"/>
+    <sheet name="YTD Wins-Losses" sheetId="34" r:id="rId7"/>
+    <sheet name="Winning Percentile Range" sheetId="35" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="213">
   <si>
     <t>ROUND</t>
   </si>
@@ -666,6 +667,18 @@
   </si>
   <si>
     <t>6-1 6-7(0) 7-5</t>
+  </si>
+  <si>
+    <t>SYDNEY INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>Elena Rybakina (KAZAKHSTAN)</t>
+  </si>
+  <si>
+    <t>AUSTRALIAN OPEN</t>
+  </si>
+  <si>
+    <t>Sloane Stephens (USA)</t>
   </si>
 </sst>
 </file>
@@ -803,11 +816,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Emma Raducanu</a:t>
+              <a:t>Emma</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> (GREAT BRITAIN): YTD Wins-Losses</a:t>
+              <a:t> Raducanu (GREAT BRITAIN): YTD Wins-Losses</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -875,10 +888,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$5</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2018</c:v>
                 </c:pt>
@@ -891,15 +904,18 @@
                 <c:pt idx="3">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$5</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>22</c:v>
                 </c:pt>
@@ -912,12 +928,15 @@
                 <c:pt idx="3">
                   <c:v>25</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E2CC-4614-A70B-1782513F758E}"/>
+              <c16:uniqueId val="{00000000-9FD0-4836-9819-6E9A51559D65}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -947,10 +966,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$5</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2018</c:v>
                 </c:pt>
@@ -963,15 +982,18 @@
                 <c:pt idx="3">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$5</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -984,12 +1006,15 @@
                 <c:pt idx="3">
                   <c:v>9</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E2CC-4614-A70B-1782513F758E}"/>
+              <c16:uniqueId val="{00000001-9FD0-4836-9819-6E9A51559D65}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1003,11 +1028,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1642391840"/>
-        <c:axId val="1642386848"/>
+        <c:axId val="883992143"/>
+        <c:axId val="883978415"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1642391840"/>
+        <c:axId val="883992143"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1105,7 +1130,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1642386848"/>
+        <c:crossAx val="883978415"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1113,7 +1138,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1642386848"/>
+        <c:axId val="883978415"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1154,13 +1179,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" b="1"/>
-                  <a:t>NUMBER</a:t>
+                  <a:t>NUMBER OF MATCHES</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0"/>
-                  <a:t> OF MTACHES</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1224,7 +1244,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1642391840"/>
+        <c:crossAx val="883992143"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1334,11 +1354,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Emma</a:t>
+              <a:t>Emma Raducanu (GREAT</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Raducanu (GREAT BRITAIN): Winning Percentile Range</a:t>
+              <a:t> BRITAIN): Winning Percentile Range</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -1434,10 +1454,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$5</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2018</c:v>
                 </c:pt>
@@ -1450,15 +1470,18 @@
                 <c:pt idx="3">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$5</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.72727272727272729</c:v>
                 </c:pt>
@@ -1471,13 +1494,16 @@
                 <c:pt idx="3">
                   <c:v>0.64</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0FFF-4FD3-AB26-CBE9D76B61B9}"/>
+              <c16:uniqueId val="{00000000-8988-4A49-8BF9-78CD922731C2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1491,11 +1517,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1648130256"/>
-        <c:axId val="1648134416"/>
+        <c:axId val="956779727"/>
+        <c:axId val="956795119"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1648130256"/>
+        <c:axId val="956779727"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1593,7 +1619,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1648134416"/>
+        <c:crossAx val="956795119"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1601,7 +1627,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1648134416"/>
+        <c:axId val="956795119"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1707,7 +1733,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1648130256"/>
+        <c:crossAx val="956779727"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2882,26 +2908,24 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{49C3E6B6-6B77-4E0E-9DF0-460A87EC4FED}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2BB99BC0-3FE8-4C0D-8F7A-D688CC918E18}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{505DF5D5-0786-405B-B7BC-057D5FF55490}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9DD68FD7-71F5-4137-9DFF-CAAEC3D3F902}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
@@ -2909,13 +2933,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01448877-05E5-416C-B4A0-E99B6CB53911}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64FD9DC2-7B2F-4BDE-B021-9958E3240617}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2942,13 +2966,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{296F9E5A-DC98-4E4D-A4AF-1E05125EF6DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E467DFC-EDFC-413E-B94C-9910EBF18978}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4468,8 +4492,8 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E44" activeCellId="8" sqref="E2 E6 E11 E13 E19 E25 E38 E42 E44"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5046,14 +5070,95 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADC7F0A-9B43-45B0-8919-BDD44D307664}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5145,7 +5250,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F5" si="0">(D4-E4)/D4</f>
+        <f t="shared" ref="F4:F6" si="0">(D4-E4)/D4</f>
         <v>0.5</v>
       </c>
     </row>
@@ -5171,57 +5276,78 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2">
-        <f>SUM(B2:B5)</f>
-        <v>27</v>
-      </c>
-      <c r="C6" s="2">
-        <f>SUM(C2:C5)</f>
+      <c r="A6">
+        <v>2022</v>
+      </c>
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="D6" s="2">
-        <f>SUM(D2:D5)</f>
-        <v>76</v>
-      </c>
-      <c r="E6" s="2">
-        <f>SUM(E2:E5)</f>
-        <v>25</v>
-      </c>
-      <c r="F6" s="6">
-        <f>(D6-E6)/D6</f>
-        <v>0.67105263157894735</v>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
-        <f>AVERAGE(B2:B5)</f>
-        <v>6.75</v>
+        <f>SUM(B2:B6)</f>
+        <v>28</v>
       </c>
       <c r="C7" s="2">
-        <f>AVERAGE(C2:C5)</f>
-        <v>0.25</v>
+        <f>SUM(C2:C6)</f>
+        <v>1</v>
       </c>
       <c r="D7" s="2">
-        <f>AVERAGE(D2:D5)</f>
-        <v>19</v>
+        <f>SUM(D2:D6)</f>
+        <v>76</v>
       </c>
       <c r="E7" s="2">
-        <f>AVERAGE(E2:E5)</f>
-        <v>6.25</v>
+        <f>SUM(E2:E6)</f>
+        <v>26</v>
       </c>
       <c r="F7" s="6">
         <f>(D7-E7)/D7</f>
-        <v>0.67105263157894735</v>
+        <v>0.65789473684210531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="2">
+        <f>AVERAGE(B2:B6)</f>
+        <v>5.6</v>
+      </c>
+      <c r="C8" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="2">
+        <f>AVERAGE(D2:D6)</f>
+        <v>15.2</v>
+      </c>
+      <c r="E8" s="2">
+        <f>AVERAGE(E2:E6)</f>
+        <v>5.2</v>
+      </c>
+      <c r="F8" s="6">
+        <f>(D8-E8)/D8</f>
+        <v>0.65789473684210531</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F5">
+  <conditionalFormatting sqref="F2:F6">
     <cfRule type="iconSet" priority="41">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>

--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8646" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C13B1060-7EB4-4462-AD8A-3629E2A90124}"/>
+  <xr:revisionPtr revIDLastSave="8657" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35EBCCB2-29BA-465A-A841-9AD86493770E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="216">
   <si>
     <t>ROUND</t>
   </si>
@@ -679,6 +679,15 @@
   </si>
   <si>
     <t>Sloane Stephens (USA)</t>
+  </si>
+  <si>
+    <t>Danka Kovinić (MONTENEGRO)</t>
+  </si>
+  <si>
+    <t>6-0 2-6 6-1</t>
+  </si>
+  <si>
+    <t>6-4 4-6 6-3</t>
   </si>
 </sst>
 </file>
@@ -929,7 +938,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1007,7 +1016,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1495,7 +1504,7 @@
                   <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2922,7 +2931,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9DD68FD7-71F5-4137-9DFF-CAAEC3D3F902}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5074,10 +5083,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5087,7 +5096,7 @@
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -5142,6 +5151,26 @@
       </c>
       <c r="D4" t="s">
         <v>212</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -5157,8 +5186,8 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5280,20 +5309,20 @@
         <v>2022</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5302,7 +5331,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM(B2:B6)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2">
         <f>SUM(C2:C6)</f>
@@ -5310,15 +5339,15 @@
       </c>
       <c r="D7" s="2">
         <f>SUM(D2:D6)</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E7" s="2">
         <f>SUM(E2:E6)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" s="6">
         <f>(D7-E7)/D7</f>
-        <v>0.65789473684210531</v>
+        <v>0.64935064935064934</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -5327,7 +5356,7 @@
       </c>
       <c r="B8" s="2">
         <f>AVERAGE(B2:B6)</f>
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="C8" s="2">
         <f>AVERAGE(C2:C6)</f>
@@ -5335,15 +5364,15 @@
       </c>
       <c r="D8" s="2">
         <f>AVERAGE(D2:D6)</f>
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="E8" s="2">
         <f>AVERAGE(E2:E6)</f>
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="F8" s="6">
         <f>(D8-E8)/D8</f>
-        <v>0.65789473684210531</v>
+        <v>0.64935064935064934</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8657" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35EBCCB2-29BA-465A-A841-9AD86493770E}"/>
+  <xr:revisionPtr revIDLastSave="8736" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2B82571-59EF-49EE-AB4F-5E34704E7644}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="236">
   <si>
     <t>ROUND</t>
   </si>
@@ -688,6 +688,66 @@
   </si>
   <si>
     <t>6-4 4-6 6-3</t>
+  </si>
+  <si>
+    <t>MONTERREY OPEN</t>
+  </si>
+  <si>
+    <t>Dasha Saville (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>5-7 7-6(4) 4-3 RETIRED</t>
+  </si>
+  <si>
+    <t>Caroline Garcia (FRANCE)</t>
+  </si>
+  <si>
+    <t>6-1 3-6 6-1</t>
+  </si>
+  <si>
+    <t>Petra Martić (CROATIA)</t>
+  </si>
+  <si>
+    <t>6-7(3) 6-4 7-5</t>
+  </si>
+  <si>
+    <t>MIAMI OPEN</t>
+  </si>
+  <si>
+    <t>Kateřina Siniaková (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>3-6 6-4 7-5</t>
+  </si>
+  <si>
+    <t>BILLIE JEAN KING CUP</t>
+  </si>
+  <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>Tereza Martincová (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>7-5 7-5</t>
+  </si>
+  <si>
+    <t>6-1 6-1</t>
+  </si>
+  <si>
+    <t>STUTTGART OPEN</t>
+  </si>
+  <si>
+    <t>Storm Sanders (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>Tamara Korpatsch (GERMANY)</t>
+  </si>
+  <si>
+    <t>Iga Świątek (POLAND)</t>
+  </si>
+  <si>
+    <t>MUTUA MADRID OPEN</t>
   </si>
 </sst>
 </file>
@@ -938,7 +998,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1016,7 +1076,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1504,7 +1564,7 @@
                   <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>-0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4501,7 +4561,7 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -5083,10 +5143,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A21" activeCellId="7" sqref="A2 A4 A7 A9 A12 A14 A17 A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5094,9 +5154,9 @@
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -5171,6 +5231,164 @@
       </c>
       <c r="F5" t="s">
         <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B14" t="s">
+        <v>227</v>
+      </c>
+      <c r="D14" t="s">
+        <v>228</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>231</v>
+      </c>
+      <c r="B17" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>232</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>234</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>235</v>
+      </c>
+      <c r="B21" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -5187,7 +5405,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5309,20 +5527,20 @@
         <v>2022</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5331,7 +5549,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM(B2:B6)</f>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2">
         <f>SUM(C2:C6)</f>
@@ -5339,15 +5557,15 @@
       </c>
       <c r="D7" s="2">
         <f>SUM(D2:D6)</f>
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E7" s="2">
         <f>SUM(E2:E6)</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" s="6">
         <f>(D7-E7)/D7</f>
-        <v>0.64935064935064934</v>
+        <v>0.60493827160493829</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -5356,7 +5574,7 @@
       </c>
       <c r="B8" s="2">
         <f>AVERAGE(B2:B6)</f>
-        <v>5.8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2">
         <f>AVERAGE(C2:C6)</f>
@@ -5364,15 +5582,15 @@
       </c>
       <c r="D8" s="2">
         <f>AVERAGE(D2:D6)</f>
-        <v>15.4</v>
+        <v>16.2</v>
       </c>
       <c r="E8" s="2">
         <f>AVERAGE(E2:E6)</f>
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="F8" s="6">
         <f>(D8-E8)/D8</f>
-        <v>0.64935064935064934</v>
+        <v>0.60493827160493818</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8736" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2B82571-59EF-49EE-AB4F-5E34704E7644}"/>
+  <xr:revisionPtr revIDLastSave="8743" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4D448E7-E93C-4498-837A-4F707A477E3B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="237">
   <si>
     <t>ROUND</t>
   </si>
@@ -748,6 +748,9 @@
   </si>
   <si>
     <t>MUTUA MADRID OPEN</t>
+  </si>
+  <si>
+    <t>7-6(3) 6-0</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1001,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1564,7 +1567,7 @@
                   <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.4</c:v>
+                  <c:v>-0.16666666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4561,8 +4564,8 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5143,10 +5146,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A21" activeCellId="7" sqref="A2 A4 A7 A9 A12 A14 A17 A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5390,6 +5393,26 @@
       <c r="B21" t="s">
         <v>227</v>
       </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>228</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>205</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5405,7 +5428,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5533,14 +5556,14 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>7</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <v>-0.16666666666666666</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5557,7 +5580,7 @@
       </c>
       <c r="D7" s="2">
         <f>SUM(D2:D6)</f>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2">
         <f>SUM(E2:E6)</f>
@@ -5565,7 +5588,7 @@
       </c>
       <c r="F7" s="6">
         <f>(D7-E7)/D7</f>
-        <v>0.60493827160493829</v>
+        <v>0.6097560975609756</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -5582,7 +5605,7 @@
       </c>
       <c r="D8" s="2">
         <f>AVERAGE(D2:D6)</f>
-        <v>16.2</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="E8" s="2">
         <f>AVERAGE(E2:E6)</f>
@@ -5590,7 +5613,7 @@
       </c>
       <c r="F8" s="6">
         <f>(D8-E8)/D8</f>
-        <v>0.60493827160493818</v>
+        <v>0.6097560975609756</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8743" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4D448E7-E93C-4498-837A-4F707A477E3B}"/>
+  <xr:revisionPtr revIDLastSave="8760" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6D93BAB-BE92-4B95-9D61-55B63D201FE9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="240">
   <si>
     <t>ROUND</t>
   </si>
@@ -751,6 +751,15 @@
   </si>
   <si>
     <t>7-6(3) 6-0</t>
+  </si>
+  <si>
+    <t>Anhelina Kalinina (UKRAINE)</t>
+  </si>
+  <si>
+    <t>6-2 2-6 6-4</t>
+  </si>
+  <si>
+    <t>ITALIAN OPEN</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1010,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1079,7 +1088,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1567,7 +1576,7 @@
                   <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.16666666666666666</c:v>
+                  <c:v>-0.14285714285714285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5146,10 +5155,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5413,6 +5422,34 @@
       <c r="D22" t="s">
         <v>205</v>
       </c>
+      <c r="E22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>237</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B25" t="s">
+        <v>227</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5428,7 +5465,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5550,20 +5587,20 @@
         <v>2022</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>-0.16666666666666666</v>
+        <v>-0.14285714285714285</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5572,7 +5609,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM(B2:B6)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2">
         <f>SUM(C2:C6)</f>
@@ -5580,15 +5617,15 @@
       </c>
       <c r="D7" s="2">
         <f>SUM(D2:D6)</f>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2">
         <f>SUM(E2:E6)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="6">
         <f>(D7-E7)/D7</f>
-        <v>0.6097560975609756</v>
+        <v>0.60240963855421692</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -5597,7 +5634,7 @@
       </c>
       <c r="B8" s="2">
         <f>AVERAGE(B2:B6)</f>
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="C8" s="2">
         <f>AVERAGE(C2:C6)</f>
@@ -5605,15 +5642,15 @@
       </c>
       <c r="D8" s="2">
         <f>AVERAGE(D2:D6)</f>
-        <v>16.399999999999999</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="E8" s="2">
         <f>AVERAGE(E2:E6)</f>
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="F8" s="6">
         <f>(D8-E8)/D8</f>
-        <v>0.6097560975609756</v>
+        <v>0.60240963855421692</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8760" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6D93BAB-BE92-4B95-9D61-55B63D201FE9}"/>
+  <xr:revisionPtr revIDLastSave="8798" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E45EF885-B884-4E88-9785-6D50A22AD70C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="247">
   <si>
     <t>ROUND</t>
   </si>
@@ -760,6 +760,27 @@
   </si>
   <si>
     <t>ITALIAN OPEN</t>
+  </si>
+  <si>
+    <t>Bianca Andreescu (CANADA)</t>
+  </si>
+  <si>
+    <t>ROLAND GARROS</t>
+  </si>
+  <si>
+    <t>Linda Nosková (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>6-7(4) 7-5 6-1</t>
+  </si>
+  <si>
+    <t>3-6 6-1 6-1</t>
+  </si>
+  <si>
+    <t>Viktorija Golubic (SWITZERLAND)</t>
+  </si>
+  <si>
+    <t>Alison Van Uytvanck (BELGIUM)</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1031,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1088,7 +1109,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1576,7 +1597,7 @@
                   <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.14285714285714285</c:v>
+                  <c:v>-0.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3378,8 +3399,8 @@
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E36" activeCellId="5" sqref="E4 E11 E20 E22 E25 E36"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A27" activeCellId="1" sqref="A13 A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3866,7 +3887,7 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -4573,8 +4594,8 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5155,10 +5176,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5450,6 +5471,86 @@
       <c r="B25" t="s">
         <v>227</v>
       </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>240</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>241</v>
+      </c>
+      <c r="B27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>242</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>245</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>246</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5464,8 +5565,8 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5587,20 +5688,20 @@
         <v>2022</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>-0.14285714285714285</v>
+        <v>-0.375</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5609,7 +5710,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM(B2:B6)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2">
         <f>SUM(C2:C6)</f>
@@ -5617,15 +5718,15 @@
       </c>
       <c r="D7" s="2">
         <f>SUM(D2:D6)</f>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2">
         <f>SUM(E2:E6)</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F7" s="6">
         <f>(D7-E7)/D7</f>
-        <v>0.60240963855421692</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -5634,7 +5735,7 @@
       </c>
       <c r="B8" s="2">
         <f>AVERAGE(B2:B6)</f>
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="C8" s="2">
         <f>AVERAGE(C2:C6)</f>
@@ -5642,15 +5743,15 @@
       </c>
       <c r="D8" s="2">
         <f>AVERAGE(D2:D6)</f>
-        <v>16.600000000000001</v>
+        <v>16.8</v>
       </c>
       <c r="E8" s="2">
         <f>AVERAGE(E2:E6)</f>
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="F8" s="6">
         <f>(D8-E8)/D8</f>
-        <v>0.60240963855421692</v>
+        <v>0.57142857142857151</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8798" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E45EF885-B884-4E88-9785-6D50A22AD70C}"/>
+  <xr:revisionPtr revIDLastSave="8886" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA97A49E-D4CD-4697-893A-D49BDCE6D18D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="275">
   <si>
     <t>ROUND</t>
   </si>
@@ -573,9 +573,6 @@
     <t>Sorana Cîrstea (ROMANIA)</t>
   </si>
   <si>
-    <t>MUBADALA SILICON VALLEY CLASSIC</t>
-  </si>
-  <si>
     <t>Shuai Zhang (CHINA)</t>
   </si>
   <si>
@@ -781,6 +778,93 @@
   </si>
   <si>
     <t>Alison Van Uytvanck (BELGIUM)</t>
+  </si>
+  <si>
+    <t>CITI OPEN</t>
+  </si>
+  <si>
+    <t>Louisa Chirico (USA)</t>
+  </si>
+  <si>
+    <t>Camila Osorio (COLOMBIA)</t>
+  </si>
+  <si>
+    <t>7-6(5) 7-6(4)</t>
+  </si>
+  <si>
+    <t>Liudmila Samsonova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>7-6(8) 6-1</t>
+  </si>
+  <si>
+    <t>SILICON VALLEY CLASSIC</t>
+  </si>
+  <si>
+    <t>CANADIAN OPEN</t>
+  </si>
+  <si>
+    <t>Camila Giorgi (ITALY)</t>
+  </si>
+  <si>
+    <t>7-6(0) 6-2</t>
+  </si>
+  <si>
+    <t>CINCINNATI MASTERS</t>
+  </si>
+  <si>
+    <t>Victória Azárenka (BELARUS)</t>
+  </si>
+  <si>
+    <t>Jessica Pegula (USA)</t>
+  </si>
+  <si>
+    <t>Serena Williams (USA)</t>
+  </si>
+  <si>
+    <t>6-4 6-0</t>
+  </si>
+  <si>
+    <t>6-0 6-2</t>
+  </si>
+  <si>
+    <t>Alizé Cornet (FRANCE)</t>
+  </si>
+  <si>
+    <t>SLOVENIA OPEN</t>
+  </si>
+  <si>
+    <t>Dayana Yastremska (UKRAINE)</t>
+  </si>
+  <si>
+    <t>6-2 5-3 RETIRED</t>
+  </si>
+  <si>
+    <t>Anna-Lena Friedsam (GERMANY)</t>
+  </si>
+  <si>
+    <t>7-5 0-6 6-3</t>
+  </si>
+  <si>
+    <t>KOREA OPEN</t>
+  </si>
+  <si>
+    <t>Jeļena Ostapenko (LATVIA)</t>
+  </si>
+  <si>
+    <t>4-6 6-3 3-0 RETIRED</t>
+  </si>
+  <si>
+    <t>Moyuka Uchijima (JAPAN)</t>
+  </si>
+  <si>
+    <t>Yanina Wickmayer (BELGIUM)</t>
+  </si>
+  <si>
+    <t>Magda Linette (POLAND)</t>
+  </si>
+  <si>
+    <t>6-2 6-2</t>
   </si>
 </sst>
 </file>
@@ -860,7 +944,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1031,7 +1115,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1109,7 +1193,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1597,7 +1681,7 @@
                   <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.375</c:v>
+                  <c:v>-5.8823529411764705E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4594,15 +4678,15 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -4760,7 +4844,7 @@
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>252</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -4769,7 +4853,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
@@ -4780,7 +4864,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -4789,7 +4873,7 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
@@ -4837,7 +4921,7 @@
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4845,18 +4929,18 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -4871,7 +4955,7 @@
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4879,7 +4963,7 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -4893,13 +4977,13 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -4907,13 +4991,13 @@
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -4927,7 +5011,7 @@
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4955,7 +5039,7 @@
         <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
@@ -4969,7 +5053,7 @@
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
@@ -4983,7 +5067,7 @@
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
@@ -4997,7 +5081,7 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
@@ -5011,7 +5095,7 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
@@ -5025,7 +5109,7 @@
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
@@ -5053,7 +5137,7 @@
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>13</v>
@@ -5067,7 +5151,7 @@
         <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
@@ -5078,7 +5162,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B38" t="s">
         <v>19</v>
@@ -5087,7 +5171,7 @@
         <v>33</v>
       </c>
       <c r="D38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>14</v>
@@ -5098,7 +5182,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B40" t="s">
         <v>19</v>
@@ -5107,13 +5191,13 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
+        <v>201</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
         <v>202</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -5121,7 +5205,7 @@
         <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
@@ -5135,7 +5219,7 @@
         <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>14</v>
@@ -5146,7 +5230,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B44" t="s">
         <v>19</v>
@@ -5155,13 +5239,13 @@
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -5176,10 +5260,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E53" activeCellId="17" sqref="E2 E5 E7 E10 E12 E15 E19 E23 E25 E28 E30 E33 E37 E39 E43 E45 E48 E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5214,7 +5298,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -5223,7 +5307,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>14</v>
@@ -5234,7 +5318,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -5243,13 +5327,13 @@
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5257,18 +5341,18 @@
         <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -5277,18 +5361,18 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -5297,13 +5381,13 @@
         <v>33</v>
       </c>
       <c r="D9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
         <v>219</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -5311,18 +5395,18 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -5331,30 +5415,30 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14" t="s">
         <v>226</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>227</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
         <v>228</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -5365,21 +5449,21 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>13</v>
@@ -5393,13 +5477,13 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5407,7 +5491,7 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
@@ -5418,22 +5502,22 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5441,7 +5525,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -5455,27 +5539,27 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C25" t="s">
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
@@ -5486,22 +5570,22 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C27" t="s">
         <v>31</v>
       </c>
       <c r="D27" t="s">
+        <v>241</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
         <v>242</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -5509,13 +5593,13 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -5529,13 +5613,13 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -5549,7 +5633,259 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
+        <v>245</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" t="s">
+        <v>218</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>246</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>247</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>248</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>250</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>253</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" t="s">
+        <v>254</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>256</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>259</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>257</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" t="s">
+        <v>258</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" t="s">
+        <v>262</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>263</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>264</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>266</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>268</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" t="s">
+        <v>271</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s">
+        <v>272</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" t="s">
+        <v>273</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" t="s">
+        <v>269</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -5565,7 +5901,7 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -5688,20 +6024,20 @@
         <v>2022</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>-0.375</v>
+        <v>-5.8823529411764705E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5710,7 +6046,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM(B2:B6)</f>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2">
         <f>SUM(C2:C6)</f>
@@ -5718,15 +6054,15 @@
       </c>
       <c r="D7" s="2">
         <f>SUM(D2:D6)</f>
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E7" s="2">
         <f>SUM(E2:E6)</f>
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F7" s="6">
         <f>(D7-E7)/D7</f>
-        <v>0.5714285714285714</v>
+        <v>0.5376344086021505</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -5735,7 +6071,7 @@
       </c>
       <c r="B8" s="2">
         <f>AVERAGE(B2:B6)</f>
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2">
         <f>AVERAGE(C2:C6)</f>
@@ -5743,15 +6079,15 @@
       </c>
       <c r="D8" s="2">
         <f>AVERAGE(D2:D6)</f>
-        <v>16.8</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E8" s="2">
         <f>AVERAGE(E2:E6)</f>
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="F8" s="6">
         <f>(D8-E8)/D8</f>
-        <v>0.57142857142857151</v>
+        <v>0.53763440860215062</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8886" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA97A49E-D4CD-4697-893A-D49BDCE6D18D}"/>
+  <xr:revisionPtr revIDLastSave="8898" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5313B5A0-31A4-4F15-86B6-C53415A235EF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="2021" sheetId="28" r:id="rId4"/>
     <sheet name="2022" sheetId="33" r:id="rId5"/>
     <sheet name="YTD Stats" sheetId="1" r:id="rId6"/>
-    <sheet name="YTD Wins-Losses" sheetId="34" r:id="rId7"/>
+    <sheet name="Wins-Losses" sheetId="34" r:id="rId7"/>
     <sheet name="Winning Percentile Range" sheetId="35" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="277">
   <si>
     <t>ROUND</t>
   </si>
@@ -865,6 +865,12 @@
   </si>
   <si>
     <t>6-2 6-2</t>
+  </si>
+  <si>
+    <t>OSTRAVA OPEN</t>
+  </si>
+  <si>
+    <t>Daria Kasatkina (RUSSIA)</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1012,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Raducanu (GREAT BRITAIN): YTD Wins-Losses</a:t>
+              <a:t> Raducanu (GREAT BRITAIN): Wins-Losses</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -1193,7 +1199,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1634,7 +1640,6 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="1"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -1681,7 +1686,7 @@
                   <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5.8823529411764705E-2</c:v>
+                  <c:v>-0.11764705882352941</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3108,7 +3113,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9DD68FD7-71F5-4137-9DFF-CAAEC3D3F902}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3179,6 +3184,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5260,10 +5269,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E53" activeCellId="17" sqref="E2 E5 E7 E10 E12 E15 E19 E23 E25 E28 E30 E33 E37 E39 E43 E45 E48 E53"/>
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5888,6 +5897,26 @@
         <v>270</v>
       </c>
     </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>275</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s">
+        <v>276</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -5901,7 +5930,7 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -6024,7 +6053,7 @@
         <v>2022</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -6033,11 +6062,11 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>-5.8823529411764705E-2</v>
+        <v>-0.11764705882352941</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6046,7 +6075,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM(B2:B6)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2">
         <f>SUM(C2:C6)</f>
@@ -6058,11 +6087,11 @@
       </c>
       <c r="E7" s="2">
         <f>SUM(E2:E6)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" s="6">
         <f>(D7-E7)/D7</f>
-        <v>0.5376344086021505</v>
+        <v>0.5268817204301075</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -6071,7 +6100,7 @@
       </c>
       <c r="B8" s="2">
         <f>AVERAGE(B2:B6)</f>
-        <v>9</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C8" s="2">
         <f>AVERAGE(C2:C6)</f>
@@ -6083,11 +6112,11 @@
       </c>
       <c r="E8" s="2">
         <f>AVERAGE(E2:E6)</f>
-        <v>8.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F8" s="6">
         <f>(D8-E8)/D8</f>
-        <v>0.53763440860215062</v>
+        <v>0.5268817204301075</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8898" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5313B5A0-31A4-4F15-86B6-C53415A235EF}"/>
+  <xr:revisionPtr revIDLastSave="8966" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7B06BFC-C759-4BE1-BA94-5247804E9A72}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="2020" sheetId="27" r:id="rId3"/>
     <sheet name="2021" sheetId="28" r:id="rId4"/>
     <sheet name="2022" sheetId="33" r:id="rId5"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId6"/>
-    <sheet name="Wins-Losses" sheetId="34" r:id="rId7"/>
-    <sheet name="Winning Percentile Range" sheetId="35" r:id="rId8"/>
+    <sheet name="2023" sheetId="36" r:id="rId6"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId7"/>
+    <sheet name="Wins-Losses" sheetId="37" r:id="rId8"/>
+    <sheet name="Winning Percentile Range" sheetId="39" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="284">
   <si>
     <t>ROUND</t>
   </si>
@@ -871,6 +872,27 @@
   </si>
   <si>
     <t>Daria Kasatkina (RUSSIA)</t>
+  </si>
+  <si>
+    <t>6-3 7-6(4)</t>
+  </si>
+  <si>
+    <t>4-6 6-4 6-2</t>
+  </si>
+  <si>
+    <t>AUCKLAND OPEN</t>
+  </si>
+  <si>
+    <t>Linda Fruhvirtová (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Viktória Kužmová (SLOVAKIA)</t>
+  </si>
+  <si>
+    <t>0-6 7-5 RETIRED</t>
+  </si>
+  <si>
+    <t>Coco Gauff (USA)</t>
   </si>
 </sst>
 </file>
@@ -946,7 +968,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -954,6 +976,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1008,13 +1031,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Emma</a:t>
+              <a:t>Emma Raducanu (GREAT BRITAIN): Wins-Losses</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Raducanu (GREAT BRITAIN): Wins-Losses</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1080,10 +1098,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$6</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2018</c:v>
                 </c:pt>
@@ -1099,15 +1117,18 @@
                 <c:pt idx="4">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$6</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>22</c:v>
                 </c:pt>
@@ -1123,12 +1144,15 @@
                 <c:pt idx="4">
                   <c:v>17</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9FD0-4836-9819-6E9A51559D65}"/>
+              <c16:uniqueId val="{00000000-3F5B-469C-B39A-98CABC5D4F93}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1158,10 +1182,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$6</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2018</c:v>
                 </c:pt>
@@ -1177,15 +1201,18 @@
                 <c:pt idx="4">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$6</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -1201,12 +1228,15 @@
                 <c:pt idx="4">
                   <c:v>19</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9FD0-4836-9819-6E9A51559D65}"/>
+              <c16:uniqueId val="{00000001-3F5B-469C-B39A-98CABC5D4F93}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1220,11 +1250,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="883992143"/>
-        <c:axId val="883978415"/>
+        <c:axId val="838169936"/>
+        <c:axId val="838156624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="883992143"/>
+        <c:axId val="838169936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1322,7 +1352,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="883978415"/>
+        <c:crossAx val="838156624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1330,7 +1360,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="883978415"/>
+        <c:axId val="838156624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1436,7 +1466,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="883992143"/>
+        <c:crossAx val="838169936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1546,13 +1576,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Emma Raducanu (GREAT</a:t>
+              <a:t>Emma Raducanu (GREAT BRITAIN): Winning Percentile Range</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> BRITAIN): Winning Percentile Range</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1645,10 +1670,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$6</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2018</c:v>
                 </c:pt>
@@ -1664,15 +1689,18 @@
                 <c:pt idx="4">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$6</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.72727272727272729</c:v>
                 </c:pt>
@@ -1688,13 +1716,16 @@
                 <c:pt idx="4">
                   <c:v>-0.11764705882352941</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8988-4A49-8BF9-78CD922731C2}"/>
+              <c16:uniqueId val="{00000001-1E03-4A74-853C-B4A292D94922}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1708,11 +1739,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="956779727"/>
-        <c:axId val="956795119"/>
+        <c:axId val="1053973904"/>
+        <c:axId val="1053980976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="956779727"/>
+        <c:axId val="1053973904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1810,7 +1841,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="956795119"/>
+        <c:crossAx val="1053980976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1818,7 +1849,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="956795119"/>
+        <c:axId val="1053980976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1924,7 +1955,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="956779727"/>
+        <c:crossAx val="1053973904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2583,7 +2614,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2691,11 +2722,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2706,11 +2732,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2742,9 +2763,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3099,21 +3117,22 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2BB99BC0-3FE8-4C0D-8F7A-D688CC918E18}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{55160879-050C-43EF-9A81-8ABC9DC42D37}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9DD68FD7-71F5-4137-9DFF-CAAEC3D3F902}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F55FAC2A-1FA9-4F19-A44D-A6B6357EB2B9}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3124,13 +3143,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64FD9DC2-7B2F-4BDE-B021-9958E3240617}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A50AB1D5-8C93-C610-E60B-C91ABA36F315}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3157,13 +3176,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+    <xdr:ext cx="8657422" cy="6279614"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E467DFC-EDFC-413E-B94C-9910EBF18978}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A276527-47EB-321F-936D-94CB41325415}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3496,17 +3515,17 @@
       <selection activeCell="A27" activeCellId="1" sqref="A13 A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3526,7 +3545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -3546,7 +3565,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -3560,7 +3579,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -3574,7 +3593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -3594,7 +3613,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>21</v>
       </c>
@@ -3608,7 +3627,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>30</v>
       </c>
@@ -3622,7 +3641,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -3636,7 +3655,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -3650,7 +3669,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -3664,7 +3683,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -3684,7 +3703,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>12</v>
       </c>
@@ -3698,7 +3717,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -3712,7 +3731,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -3726,7 +3745,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>16</v>
       </c>
@@ -3740,7 +3759,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>17</v>
       </c>
@@ -3754,7 +3773,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -3774,7 +3793,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -3794,7 +3813,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -3814,7 +3833,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>21</v>
       </c>
@@ -3828,7 +3847,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -3848,7 +3867,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -3862,7 +3881,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -3876,7 +3895,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>16</v>
       </c>
@@ -3890,7 +3909,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>17</v>
       </c>
@@ -3904,7 +3923,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>105</v>
       </c>
@@ -3924,7 +3943,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -3938,7 +3957,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -3952,7 +3971,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -3984,17 +4003,17 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4014,7 +4033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -4034,7 +4053,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4048,7 +4067,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -4068,7 +4087,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -4082,7 +4101,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -4096,7 +4115,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -4110,7 +4129,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -4124,7 +4143,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -4144,7 +4163,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -4158,7 +4177,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -4172,7 +4191,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -4186,7 +4205,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -4206,7 +4225,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -4226,7 +4245,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>11</v>
       </c>
@@ -4240,7 +4259,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -4254,7 +4273,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>132</v>
       </c>
@@ -4274,7 +4293,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -4288,7 +4307,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -4302,7 +4321,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -4316,7 +4335,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -4336,7 +4355,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>21</v>
       </c>
@@ -4350,7 +4369,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>12</v>
       </c>
@@ -4364,7 +4383,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -4378,7 +4397,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -4392,7 +4411,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>148</v>
       </c>
@@ -4412,7 +4431,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -4426,7 +4445,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>152</v>
       </c>
@@ -4446,7 +4465,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -4460,7 +4479,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -4474,7 +4493,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -4488,7 +4507,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -4502,7 +4521,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -4516,7 +4535,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -4548,17 +4567,17 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4578,7 +4597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -4598,7 +4617,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>162</v>
       </c>
@@ -4618,7 +4637,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -4632,7 +4651,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -4646,7 +4665,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -4660,7 +4679,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>17</v>
       </c>
@@ -4691,17 +4710,17 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4721,7 +4740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>168</v>
       </c>
@@ -4741,7 +4760,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>169</v>
       </c>
@@ -4761,7 +4780,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -4775,7 +4794,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -4789,7 +4808,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -4809,7 +4828,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -4823,7 +4842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -4837,7 +4856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -4851,7 +4870,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>252</v>
       </c>
@@ -4871,7 +4890,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>178</v>
       </c>
@@ -4891,7 +4910,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -4905,7 +4924,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -4919,7 +4938,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -4933,7 +4952,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -4947,7 +4966,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>183</v>
       </c>
@@ -4967,7 +4986,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>11</v>
       </c>
@@ -4981,7 +5000,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -4995,7 +5014,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -5009,7 +5028,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>17</v>
       </c>
@@ -5023,7 +5042,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -5043,7 +5062,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>21</v>
       </c>
@@ -5057,7 +5076,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>30</v>
       </c>
@@ -5071,7 +5090,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>31</v>
       </c>
@@ -5085,7 +5104,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -5099,7 +5118,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -5113,7 +5132,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -5127,7 +5146,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>15</v>
       </c>
@@ -5141,7 +5160,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>16</v>
       </c>
@@ -5155,7 +5174,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>17</v>
       </c>
@@ -5169,7 +5188,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>198</v>
       </c>
@@ -5189,7 +5208,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>200</v>
       </c>
@@ -5209,7 +5228,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -5223,7 +5242,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -5237,7 +5256,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>205</v>
       </c>
@@ -5271,21 +5290,21 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5305,7 +5324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>208</v>
       </c>
@@ -5325,7 +5344,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>210</v>
       </c>
@@ -5345,7 +5364,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -5359,7 +5378,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>215</v>
       </c>
@@ -5379,7 +5398,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>198</v>
       </c>
@@ -5399,7 +5418,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -5413,7 +5432,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>222</v>
       </c>
@@ -5433,7 +5452,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>225</v>
       </c>
@@ -5450,7 +5469,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>61</v>
       </c>
@@ -5461,7 +5480,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>230</v>
       </c>
@@ -5481,7 +5500,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5495,7 +5514,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5509,7 +5528,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>234</v>
       </c>
@@ -5529,7 +5548,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -5543,7 +5562,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -5557,7 +5576,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>238</v>
       </c>
@@ -5577,7 +5596,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>240</v>
       </c>
@@ -5597,7 +5616,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>33</v>
       </c>
@@ -5611,7 +5630,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>168</v>
       </c>
@@ -5631,7 +5650,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -5651,7 +5670,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>33</v>
       </c>
@@ -5665,7 +5684,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>246</v>
       </c>
@@ -5685,7 +5704,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>11</v>
       </c>
@@ -5699,7 +5718,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -5713,7 +5732,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>253</v>
       </c>
@@ -5733,7 +5752,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>256</v>
       </c>
@@ -5753,7 +5772,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -5767,7 +5786,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -5781,7 +5800,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -5801,7 +5820,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>263</v>
       </c>
@@ -5821,7 +5840,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>11</v>
       </c>
@@ -5835,7 +5854,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>268</v>
       </c>
@@ -5855,7 +5874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -5869,7 +5888,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -5883,7 +5902,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>16</v>
       </c>
@@ -5897,7 +5916,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>275</v>
       </c>
@@ -5924,27 +5943,144 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A54F4D8-4204-4CC4-8DD8-FD96363FA648}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A7 F1:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -5964,7 +6100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -5985,7 +6121,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -6006,7 +6142,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -6023,11 +6159,11 @@
         <v>2</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F6" si="0">(D4-E4)/D4</f>
+        <f t="shared" ref="F4:F7" si="0">(D4-E4)/D4</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -6048,7 +6184,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -6069,58 +6205,79 @@
         <v>-0.11764705882352941</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2023</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <f>SUM(B2:B6)</f>
+      <c r="B8" s="2">
+        <f>SUM(B2:B7)</f>
+        <v>48</v>
+      </c>
+      <c r="C8" s="2">
+        <f>SUM(C2:C7)</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <f>SUM(D2:D7)</f>
+        <v>95</v>
+      </c>
+      <c r="E8" s="2">
+        <f>SUM(E2:E7)</f>
         <v>46</v>
-      </c>
-      <c r="C7" s="2">
-        <f>SUM(C2:C6)</f>
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <f>SUM(D2:D6)</f>
-        <v>93</v>
-      </c>
-      <c r="E7" s="2">
-        <f>SUM(E2:E6)</f>
-        <v>44</v>
-      </c>
-      <c r="F7" s="6">
-        <f>(D7-E7)/D7</f>
-        <v>0.5268817204301075</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="2">
-        <f>AVERAGE(B2:B6)</f>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="C8" s="2">
-        <f>AVERAGE(C2:C6)</f>
-        <v>0.2</v>
-      </c>
-      <c r="D8" s="2">
-        <f>AVERAGE(D2:D6)</f>
-        <v>18.600000000000001</v>
-      </c>
-      <c r="E8" s="2">
-        <f>AVERAGE(E2:E6)</f>
-        <v>8.8000000000000007</v>
       </c>
       <c r="F8" s="6">
         <f>(D8-E8)/D8</f>
-        <v>0.5268817204301075</v>
+        <v>0.51578947368421058</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="2">
+        <f>AVERAGE(B2:B7)</f>
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <f>AVERAGE(C2:C7)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D9" s="2">
+        <f>AVERAGE(D2:D7)</f>
+        <v>15.833333333333334</v>
+      </c>
+      <c r="E9" s="2">
+        <f>AVERAGE(E2:E7)</f>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="F9" s="6">
+        <f>(D9-E9)/D9</f>
+        <v>0.51578947368421058</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F6">
+  <conditionalFormatting sqref="F2:F7">
     <cfRule type="iconSet" priority="41">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>

--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8966" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7B06BFC-C759-4BE1-BA94-5247804E9A72}"/>
+  <xr:revisionPtr revIDLastSave="8995" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5438432-9D2A-4A8C-A1AB-4A3F1F8B51E9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="287">
   <si>
     <t>ROUND</t>
   </si>
@@ -893,6 +893,15 @@
   </si>
   <si>
     <t>Coco Gauff (USA)</t>
+  </si>
+  <si>
+    <t>Beatriz Haddad Maia (BRAZIL)</t>
+  </si>
+  <si>
+    <t>6-3 6-1</t>
+  </si>
+  <si>
+    <t>6-3 3-6 6-2</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1154,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1229,7 +1238,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1717,7 +1726,7 @@
                   <c:v>-0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5290,8 +5299,8 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5947,15 +5956,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E8" activeCellId="2" sqref="E2 E5 E8:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
@@ -6051,6 +6060,88 @@
       </c>
       <c r="F6" t="s">
         <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>273</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>284</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -6067,7 +6158,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A7 F1:F7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6210,20 +6301,20 @@
         <v>2023</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6232,7 +6323,7 @@
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2">
         <f>SUM(C2:C7)</f>
@@ -6240,15 +6331,15 @@
       </c>
       <c r="D8" s="2">
         <f>SUM(D2:D7)</f>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E8" s="2">
         <f>SUM(E2:E7)</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F8" s="6">
         <f>(D8-E8)/D8</f>
-        <v>0.51578947368421058</v>
+        <v>0.51020408163265307</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -6257,7 +6348,7 @@
       </c>
       <c r="B9" s="2">
         <f>AVERAGE(B2:B7)</f>
-        <v>8</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="C9" s="2">
         <f>AVERAGE(C2:C7)</f>
@@ -6265,15 +6356,15 @@
       </c>
       <c r="D9" s="2">
         <f>AVERAGE(D2:D7)</f>
-        <v>15.833333333333334</v>
+        <v>16.333333333333332</v>
       </c>
       <c r="E9" s="2">
         <f>AVERAGE(E2:E7)</f>
-        <v>7.666666666666667</v>
+        <v>8</v>
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.51578947368421058</v>
+        <v>0.51020408163265307</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8995" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5438432-9D2A-4A8C-A1AB-4A3F1F8B51E9}"/>
+  <xr:revisionPtr revIDLastSave="9003" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC03103D-7525-46BB-BA19-5384581C225C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="287">
   <si>
     <t>ROUND</t>
   </si>
@@ -1238,7 +1238,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1726,7 +1726,7 @@
                   <c:v>-0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3214,10 +3214,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5956,10 +5952,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" activeCellId="2" sqref="E2 E5 E8:E10"/>
+      <selection activeCell="E15" activeCellId="4" sqref="E3 E6 E11 E13 E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6142,6 +6138,26 @@
       </c>
       <c r="F13" t="s">
         <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>269</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -6301,7 +6317,7 @@
         <v>2023</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -6310,11 +6326,11 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6323,7 +6339,7 @@
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2">
         <f>SUM(C2:C7)</f>
@@ -6335,11 +6351,11 @@
       </c>
       <c r="E8" s="2">
         <f>SUM(E2:E7)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="6">
         <f>(D8-E8)/D8</f>
-        <v>0.51020408163265307</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -6348,7 +6364,7 @@
       </c>
       <c r="B9" s="2">
         <f>AVERAGE(B2:B7)</f>
-        <v>8.3333333333333339</v>
+        <v>8.5</v>
       </c>
       <c r="C9" s="2">
         <f>AVERAGE(C2:C7)</f>
@@ -6360,11 +6376,11 @@
       </c>
       <c r="E9" s="2">
         <f>AVERAGE(E2:E7)</f>
-        <v>8</v>
+        <v>8.1666666666666661</v>
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.51020408163265307</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9003" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC03103D-7525-46BB-BA19-5384581C225C}"/>
+  <xr:revisionPtr revIDLastSave="9005" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6418B25D-5427-47A0-95B8-648C95E075DD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -745,9 +745,6 @@
     <t>Iga Świątek (POLAND)</t>
   </si>
   <si>
-    <t>MUTUA MADRID OPEN</t>
-  </si>
-  <si>
     <t>7-6(3) 6-0</t>
   </si>
   <si>
@@ -902,6 +899,9 @@
   </si>
   <si>
     <t>6-3 3-6 6-2</t>
+  </si>
+  <si>
+    <t>MADRID OPEN</t>
   </si>
 </sst>
 </file>
@@ -3141,7 +3141,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F55FAC2A-1FA9-4F19-A44D-A6B6357EB2B9}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3185,7 +3185,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8657422" cy="6279614"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3212,6 +3212,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3516,7 +3520,7 @@
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A27" activeCellId="1" sqref="A13 A27"/>
     </sheetView>
   </sheetViews>
@@ -4004,7 +4008,7 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -4711,7 +4715,7 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -4877,7 +4881,7 @@
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -5296,17 +5300,17 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -5535,7 +5539,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>234</v>
+        <v>286</v>
       </c>
       <c r="B21" t="s">
         <v>226</v>
@@ -5550,7 +5554,7 @@
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -5572,18 +5576,18 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s">
         <v>226</v>
@@ -5592,7 +5596,7 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
@@ -5603,7 +5607,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s">
         <v>226</v>
@@ -5612,13 +5616,13 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
         <v>241</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -5632,7 +5636,7 @@
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -5646,7 +5650,7 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
@@ -5666,7 +5670,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
@@ -5691,7 +5695,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B35" t="s">
         <v>19</v>
@@ -5700,7 +5704,7 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>13</v>
@@ -5714,13 +5718,13 @@
         <v>11</v>
       </c>
       <c r="D36" t="s">
+        <v>247</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
         <v>248</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -5728,18 +5732,18 @@
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B39" t="s">
         <v>19</v>
@@ -5748,18 +5752,18 @@
         <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B41" t="s">
         <v>19</v>
@@ -5768,13 +5772,13 @@
         <v>12</v>
       </c>
       <c r="D41" t="s">
+        <v>258</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
         <v>259</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -5782,13 +5786,13 @@
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -5796,7 +5800,7 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>14</v>
@@ -5816,7 +5820,7 @@
         <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>14</v>
@@ -5827,7 +5831,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B47" t="s">
         <v>19</v>
@@ -5836,13 +5840,13 @@
         <v>12</v>
       </c>
       <c r="D47" t="s">
+        <v>263</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
         <v>264</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -5850,18 +5854,18 @@
         <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B50" t="s">
         <v>19</v>
@@ -5870,7 +5874,7 @@
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>13</v>
@@ -5884,7 +5888,7 @@
         <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>13</v>
@@ -5898,13 +5902,13 @@
         <v>15</v>
       </c>
       <c r="D52" t="s">
+        <v>272</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" t="s">
         <v>273</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -5912,18 +5916,18 @@
         <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B55" t="s">
         <v>19</v>
@@ -5932,7 +5936,7 @@
         <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>14</v>
@@ -5990,7 +5994,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -5999,13 +6003,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -6014,13 +6018,13 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -6049,13 +6053,13 @@
         <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6083,7 +6087,7 @@
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -6097,7 +6101,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -6117,7 +6121,7 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6131,13 +6135,13 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -6151,7 +6155,7 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
@@ -6173,7 +6177,7 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8886" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA97A49E-D4CD-4697-893A-D49BDCE6D18D}"/>
+  <xr:revisionPtr revIDLastSave="9005" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6418B25D-5427-47A0-95B8-648C95E075DD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="2020" sheetId="27" r:id="rId3"/>
     <sheet name="2021" sheetId="28" r:id="rId4"/>
     <sheet name="2022" sheetId="33" r:id="rId5"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId6"/>
-    <sheet name="YTD Wins-Losses" sheetId="34" r:id="rId7"/>
-    <sheet name="Winning Percentile Range" sheetId="35" r:id="rId8"/>
+    <sheet name="2023" sheetId="36" r:id="rId6"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId7"/>
+    <sheet name="Wins-Losses" sheetId="37" r:id="rId8"/>
+    <sheet name="Winning Percentile Range" sheetId="39" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="287">
   <si>
     <t>ROUND</t>
   </si>
@@ -744,9 +745,6 @@
     <t>Iga Świątek (POLAND)</t>
   </si>
   <si>
-    <t>MUTUA MADRID OPEN</t>
-  </si>
-  <si>
     <t>7-6(3) 6-0</t>
   </si>
   <si>
@@ -865,6 +863,45 @@
   </si>
   <si>
     <t>6-2 6-2</t>
+  </si>
+  <si>
+    <t>OSTRAVA OPEN</t>
+  </si>
+  <si>
+    <t>Daria Kasatkina (RUSSIA)</t>
+  </si>
+  <si>
+    <t>6-3 7-6(4)</t>
+  </si>
+  <si>
+    <t>4-6 6-4 6-2</t>
+  </si>
+  <si>
+    <t>AUCKLAND OPEN</t>
+  </si>
+  <si>
+    <t>Linda Fruhvirtová (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Viktória Kužmová (SLOVAKIA)</t>
+  </si>
+  <si>
+    <t>0-6 7-5 RETIRED</t>
+  </si>
+  <si>
+    <t>Coco Gauff (USA)</t>
+  </si>
+  <si>
+    <t>Beatriz Haddad Maia (BRAZIL)</t>
+  </si>
+  <si>
+    <t>6-3 6-1</t>
+  </si>
+  <si>
+    <t>6-3 3-6 6-2</t>
+  </si>
+  <si>
+    <t>MADRID OPEN</t>
   </si>
 </sst>
 </file>
@@ -940,7 +977,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -948,6 +985,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1002,13 +1040,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Emma</a:t>
+              <a:t>Emma Raducanu (GREAT BRITAIN): Wins-Losses</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Raducanu (GREAT BRITAIN): YTD Wins-Losses</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1074,10 +1107,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$6</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2018</c:v>
                 </c:pt>
@@ -1093,15 +1126,18 @@
                 <c:pt idx="4">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$6</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>22</c:v>
                 </c:pt>
@@ -1117,12 +1153,15 @@
                 <c:pt idx="4">
                   <c:v>17</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9FD0-4836-9819-6E9A51559D65}"/>
+              <c16:uniqueId val="{00000000-3F5B-469C-B39A-98CABC5D4F93}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1152,10 +1191,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$6</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2018</c:v>
                 </c:pt>
@@ -1171,15 +1210,18 @@
                 <c:pt idx="4">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$6</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -1193,14 +1235,17 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9FD0-4836-9819-6E9A51559D65}"/>
+              <c16:uniqueId val="{00000001-3F5B-469C-B39A-98CABC5D4F93}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1214,11 +1259,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="883992143"/>
-        <c:axId val="883978415"/>
+        <c:axId val="838169936"/>
+        <c:axId val="838156624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="883992143"/>
+        <c:axId val="838169936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1316,7 +1361,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="883978415"/>
+        <c:crossAx val="838156624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1324,7 +1369,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="883978415"/>
+        <c:axId val="838156624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1430,7 +1475,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="883992143"/>
+        <c:crossAx val="838169936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1540,13 +1585,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Emma Raducanu (GREAT</a:t>
+              <a:t>Emma Raducanu (GREAT BRITAIN): Winning Percentile Range</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> BRITAIN): Winning Percentile Range</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1634,16 +1674,15 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="1"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$6</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2018</c:v>
                 </c:pt>
@@ -1659,15 +1698,18 @@
                 <c:pt idx="4">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$6</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.72727272727272729</c:v>
                 </c:pt>
@@ -1681,7 +1723,10 @@
                   <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5.8823529411764705E-2</c:v>
+                  <c:v>-0.11764705882352941</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1689,7 +1734,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8988-4A49-8BF9-78CD922731C2}"/>
+              <c16:uniqueId val="{00000001-1E03-4A74-853C-B4A292D94922}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1703,11 +1748,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="956779727"/>
-        <c:axId val="956795119"/>
+        <c:axId val="1053973904"/>
+        <c:axId val="1053980976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="956779727"/>
+        <c:axId val="1053973904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1805,7 +1850,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="956795119"/>
+        <c:crossAx val="1053980976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1813,7 +1858,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="956795119"/>
+        <c:axId val="1053980976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1919,7 +1964,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="956779727"/>
+        <c:crossAx val="1053973904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2578,7 +2623,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2686,11 +2731,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2701,11 +2741,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2737,9 +2772,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3094,21 +3126,22 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2BB99BC0-3FE8-4C0D-8F7A-D688CC918E18}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{55160879-050C-43EF-9A81-8ABC9DC42D37}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9DD68FD7-71F5-4137-9DFF-CAAEC3D3F902}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F55FAC2A-1FA9-4F19-A44D-A6B6357EB2B9}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3119,13 +3152,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64FD9DC2-7B2F-4BDE-B021-9958E3240617}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A50AB1D5-8C93-C610-E60B-C91ABA36F315}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3152,13 +3185,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E467DFC-EDFC-413E-B94C-9910EBF18978}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A276527-47EB-321F-936D-94CB41325415}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3179,6 +3212,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3483,21 +3520,21 @@
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A27" activeCellId="1" sqref="A13 A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3517,7 +3554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -3537,7 +3574,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -3551,7 +3588,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -3565,7 +3602,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -3585,7 +3622,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>21</v>
       </c>
@@ -3599,7 +3636,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>30</v>
       </c>
@@ -3613,7 +3650,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -3627,7 +3664,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -3641,7 +3678,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -3655,7 +3692,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -3675,7 +3712,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>12</v>
       </c>
@@ -3689,7 +3726,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -3703,7 +3740,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -3717,7 +3754,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>16</v>
       </c>
@@ -3731,7 +3768,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>17</v>
       </c>
@@ -3745,7 +3782,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -3765,7 +3802,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -3785,7 +3822,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -3805,7 +3842,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>21</v>
       </c>
@@ -3819,7 +3856,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -3839,7 +3876,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -3853,7 +3890,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -3867,7 +3904,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>16</v>
       </c>
@@ -3881,7 +3918,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>17</v>
       </c>
@@ -3895,7 +3932,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>105</v>
       </c>
@@ -3915,7 +3952,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -3929,7 +3966,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -3943,7 +3980,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -3971,21 +4008,21 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4005,7 +4042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -4025,7 +4062,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4039,7 +4076,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -4059,7 +4096,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -4073,7 +4110,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -4087,7 +4124,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -4101,7 +4138,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -4115,7 +4152,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -4135,7 +4172,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -4149,7 +4186,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -4163,7 +4200,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -4177,7 +4214,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -4197,7 +4234,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -4217,7 +4254,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>11</v>
       </c>
@@ -4231,7 +4268,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -4245,7 +4282,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>132</v>
       </c>
@@ -4265,7 +4302,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -4279,7 +4316,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -4293,7 +4330,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -4307,7 +4344,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -4327,7 +4364,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>21</v>
       </c>
@@ -4341,7 +4378,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>12</v>
       </c>
@@ -4355,7 +4392,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -4369,7 +4406,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -4383,7 +4420,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>148</v>
       </c>
@@ -4403,7 +4440,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -4417,7 +4454,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>152</v>
       </c>
@@ -4437,7 +4474,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -4451,7 +4488,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -4465,7 +4502,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -4479,7 +4516,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -4493,7 +4530,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -4507,7 +4544,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -4539,17 +4576,17 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4569,7 +4606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -4589,7 +4626,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>162</v>
       </c>
@@ -4609,7 +4646,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -4623,7 +4660,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -4637,7 +4674,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -4651,7 +4688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>17</v>
       </c>
@@ -4678,21 +4715,21 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4712,7 +4749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>168</v>
       </c>
@@ -4732,7 +4769,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>169</v>
       </c>
@@ -4752,7 +4789,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -4766,7 +4803,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -4780,7 +4817,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -4800,7 +4837,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -4814,7 +4851,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -4828,7 +4865,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -4842,9 +4879,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -4862,7 +4899,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>178</v>
       </c>
@@ -4882,7 +4919,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -4896,7 +4933,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -4910,7 +4947,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -4924,7 +4961,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -4938,7 +4975,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>183</v>
       </c>
@@ -4958,7 +4995,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>11</v>
       </c>
@@ -4972,7 +5009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -4986,7 +5023,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -5000,7 +5037,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>17</v>
       </c>
@@ -5014,7 +5051,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -5034,7 +5071,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>21</v>
       </c>
@@ -5048,7 +5085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>30</v>
       </c>
@@ -5062,7 +5099,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>31</v>
       </c>
@@ -5076,7 +5113,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -5090,7 +5127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -5104,7 +5141,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -5118,7 +5155,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>15</v>
       </c>
@@ -5132,7 +5169,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>16</v>
       </c>
@@ -5146,7 +5183,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>17</v>
       </c>
@@ -5160,7 +5197,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>198</v>
       </c>
@@ -5180,7 +5217,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>200</v>
       </c>
@@ -5200,7 +5237,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -5214,7 +5251,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -5228,7 +5265,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>205</v>
       </c>
@@ -5260,23 +5297,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E53" activeCellId="17" sqref="E2 E5 E7 E10 E12 E15 E19 E23 E25 E28 E30 E33 E37 E39 E43 E45 E48 E53"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5296,7 +5333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>208</v>
       </c>
@@ -5316,7 +5353,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>210</v>
       </c>
@@ -5336,7 +5373,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -5350,7 +5387,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>215</v>
       </c>
@@ -5370,7 +5407,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>198</v>
       </c>
@@ -5390,7 +5427,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -5404,7 +5441,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>222</v>
       </c>
@@ -5424,7 +5461,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>225</v>
       </c>
@@ -5441,7 +5478,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>61</v>
       </c>
@@ -5452,7 +5489,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>230</v>
       </c>
@@ -5472,7 +5509,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5486,7 +5523,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5500,9 +5537,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>234</v>
+        <v>286</v>
       </c>
       <c r="B21" t="s">
         <v>226</v>
@@ -5517,10 +5554,10 @@
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -5534,23 +5571,23 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>238</v>
       </c>
       <c r="B25" t="s">
         <v>226</v>
@@ -5559,7 +5596,7 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
@@ -5568,9 +5605,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s">
         <v>226</v>
@@ -5579,16 +5616,16 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
         <v>241</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>33</v>
       </c>
@@ -5599,10 +5636,10 @@
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>168</v>
       </c>
@@ -5613,7 +5650,7 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
@@ -5622,7 +5659,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -5633,7 +5670,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
@@ -5642,7 +5679,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>33</v>
       </c>
@@ -5656,9 +5693,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B35" t="s">
         <v>19</v>
@@ -5667,7 +5704,7 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>13</v>
@@ -5676,37 +5713,37 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>11</v>
       </c>
       <c r="D36" t="s">
+        <v>247</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
         <v>248</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B39" t="s">
         <v>19</v>
@@ -5715,18 +5752,18 @@
         <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F39" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>255</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>256</v>
       </c>
       <c r="B41" t="s">
         <v>19</v>
@@ -5735,35 +5772,35 @@
         <v>12</v>
       </c>
       <c r="D41" t="s">
+        <v>258</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
         <v>259</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>14</v>
@@ -5772,7 +5809,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -5783,7 +5820,7 @@
         <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>14</v>
@@ -5792,9 +5829,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B47" t="s">
         <v>19</v>
@@ -5803,32 +5840,32 @@
         <v>12</v>
       </c>
       <c r="D47" t="s">
+        <v>263</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
         <v>264</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F48" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>267</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>268</v>
       </c>
       <c r="B50" t="s">
         <v>19</v>
@@ -5837,7 +5874,7 @@
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>13</v>
@@ -5846,12 +5883,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>13</v>
@@ -5860,32 +5897,52 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>15</v>
       </c>
       <c r="D52" t="s">
+        <v>272</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" t="s">
         <v>273</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>270</v>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>274</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s">
+        <v>275</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -5895,27 +5952,246 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A54F4D8-4204-4CC4-8DD8-FD96363FA648}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" activeCellId="4" sqref="E3 E6 E11 E13 E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>272</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>283</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>238</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>268</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -5935,7 +6211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -5956,7 +6232,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -5977,7 +6253,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -5994,11 +6270,11 @@
         <v>2</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F6" si="0">(D4-E4)/D4</f>
+        <f t="shared" ref="F4:F7" si="0">(D4-E4)/D4</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -6019,12 +6295,12 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -6033,65 +6309,86 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>-5.8823529411764705E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+        <v>-0.11764705882352941</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2023</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <f>SUM(B2:B6)</f>
-        <v>45</v>
-      </c>
-      <c r="C7" s="2">
-        <f>SUM(C2:C6)</f>
+      <c r="B8" s="2">
+        <f>SUM(B2:B7)</f>
+        <v>51</v>
+      </c>
+      <c r="C8" s="2">
+        <f>SUM(C2:C7)</f>
         <v>1</v>
       </c>
-      <c r="D7" s="2">
-        <f>SUM(D2:D6)</f>
-        <v>93</v>
-      </c>
-      <c r="E7" s="2">
-        <f>SUM(E2:E6)</f>
-        <v>43</v>
-      </c>
-      <c r="F7" s="6">
-        <f>(D7-E7)/D7</f>
-        <v>0.5376344086021505</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="2">
-        <f>AVERAGE(B2:B6)</f>
-        <v>9</v>
-      </c>
-      <c r="C8" s="2">
-        <f>AVERAGE(C2:C6)</f>
-        <v>0.2</v>
-      </c>
       <c r="D8" s="2">
-        <f>AVERAGE(D2:D6)</f>
-        <v>18.600000000000001</v>
+        <f>SUM(D2:D7)</f>
+        <v>98</v>
       </c>
       <c r="E8" s="2">
-        <f>AVERAGE(E2:E6)</f>
-        <v>8.6</v>
+        <f>SUM(E2:E7)</f>
+        <v>49</v>
       </c>
       <c r="F8" s="6">
         <f>(D8-E8)/D8</f>
-        <v>0.53763440860215062</v>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="2">
+        <f>AVERAGE(B2:B7)</f>
+        <v>8.5</v>
+      </c>
+      <c r="C9" s="2">
+        <f>AVERAGE(C2:C7)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D9" s="2">
+        <f>AVERAGE(D2:D7)</f>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="E9" s="2">
+        <f>AVERAGE(E2:E7)</f>
+        <v>8.1666666666666661</v>
+      </c>
+      <c r="F9" s="6">
+        <f>(D9-E9)/D9</f>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F6">
+  <conditionalFormatting sqref="F2:F7">
     <cfRule type="iconSet" priority="41">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>

--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9005" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6418B25D-5427-47A0-95B8-648C95E075DD}"/>
+  <xr:revisionPtr revIDLastSave="9006" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{871A1636-FF20-4BB7-9E01-409A3A077E35}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="2021" sheetId="28" r:id="rId4"/>
     <sheet name="2022" sheetId="33" r:id="rId5"/>
     <sheet name="2023" sheetId="36" r:id="rId6"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId7"/>
+    <sheet name="Stats" sheetId="1" r:id="rId7"/>
     <sheet name="Wins-Losses" sheetId="37" r:id="rId8"/>
     <sheet name="Winning Percentile Range" sheetId="39" r:id="rId9"/>
   </sheets>
@@ -1086,7 +1086,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$D$1</c:f>
+              <c:f>Stats!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1107,7 +1107,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$7</c:f>
+              <c:f>Stats!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1134,7 +1134,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$7</c:f>
+              <c:f>Stats!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1170,7 +1170,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$E$1</c:f>
+              <c:f>Stats!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1191,7 +1191,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$7</c:f>
+              <c:f>Stats!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1218,7 +1218,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$7</c:f>
+              <c:f>Stats!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1630,7 +1630,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$F$1</c:f>
+              <c:f>Stats!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1679,7 +1679,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$7</c:f>
+              <c:f>Stats!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1706,7 +1706,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$7</c:f>
+              <c:f>Stats!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3214,10 +3214,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>

--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9006" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{871A1636-FF20-4BB7-9E01-409A3A077E35}"/>
+  <xr:revisionPtr revIDLastSave="9007" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F1BC30D-132F-4C70-B364-4142B480CA62}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="15705" yWindow="750" windowWidth="21615" windowHeight="15345" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -3141,7 +3141,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F55FAC2A-1FA9-4F19-A44D-A6B6357EB2B9}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3185,7 +3185,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656320" cy="6278880"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3212,6 +3212,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3517,20 +3521,20 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" activeCellId="1" sqref="A13 A27"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3550,7 +3554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -3570,7 +3574,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -3584,7 +3588,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -3598,7 +3602,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -3618,7 +3622,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>21</v>
       </c>
@@ -3632,7 +3636,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>30</v>
       </c>
@@ -3646,7 +3650,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -3660,7 +3664,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -3674,7 +3678,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -3688,7 +3692,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -3708,7 +3712,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>12</v>
       </c>
@@ -3722,7 +3726,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -3736,7 +3740,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -3750,7 +3754,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>16</v>
       </c>
@@ -3764,7 +3768,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>17</v>
       </c>
@@ -3778,7 +3782,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -3798,7 +3802,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -3818,7 +3822,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -3838,7 +3842,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>21</v>
       </c>
@@ -3852,7 +3856,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -3872,7 +3876,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -3886,7 +3890,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -3900,7 +3904,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>16</v>
       </c>
@@ -3914,7 +3918,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>17</v>
       </c>
@@ -3928,7 +3932,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>105</v>
       </c>
@@ -3948,7 +3952,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -3962,7 +3966,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -3976,7 +3980,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -4005,20 +4009,20 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4038,7 +4042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -4058,7 +4062,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4072,7 +4076,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -4092,7 +4096,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -4106,7 +4110,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -4120,7 +4124,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -4134,7 +4138,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -4148,7 +4152,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -4168,7 +4172,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -4182,7 +4186,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -4196,7 +4200,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -4210,7 +4214,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -4230,7 +4234,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -4250,7 +4254,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>11</v>
       </c>
@@ -4264,7 +4268,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -4278,7 +4282,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>132</v>
       </c>
@@ -4298,7 +4302,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -4312,7 +4316,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -4326,7 +4330,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -4340,7 +4344,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -4360,7 +4364,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>21</v>
       </c>
@@ -4374,7 +4378,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>12</v>
       </c>
@@ -4388,7 +4392,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -4402,7 +4406,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -4416,7 +4420,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>148</v>
       </c>
@@ -4436,7 +4440,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -4450,7 +4454,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>152</v>
       </c>
@@ -4470,7 +4474,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -4484,7 +4488,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -4498,7 +4502,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -4512,7 +4516,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -4526,7 +4530,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -4540,7 +4544,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -4569,20 +4573,20 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4602,7 +4606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -4622,7 +4626,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>162</v>
       </c>
@@ -4642,7 +4646,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -4656,7 +4660,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -4670,7 +4674,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -4684,7 +4688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>17</v>
       </c>
@@ -4712,20 +4716,20 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4745,7 +4749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>168</v>
       </c>
@@ -4765,7 +4769,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>169</v>
       </c>
@@ -4785,7 +4789,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -4799,7 +4803,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -4813,7 +4817,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -4833,7 +4837,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -4847,7 +4851,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -4861,7 +4865,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -4875,7 +4879,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>251</v>
       </c>
@@ -4895,7 +4899,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>178</v>
       </c>
@@ -4915,7 +4919,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -4929,7 +4933,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -4943,7 +4947,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -4957,7 +4961,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -4971,7 +4975,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>183</v>
       </c>
@@ -4991,7 +4995,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>11</v>
       </c>
@@ -5005,7 +5009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -5019,7 +5023,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -5033,7 +5037,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>17</v>
       </c>
@@ -5047,7 +5051,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -5067,7 +5071,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>21</v>
       </c>
@@ -5081,7 +5085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>30</v>
       </c>
@@ -5095,7 +5099,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>31</v>
       </c>
@@ -5109,7 +5113,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -5123,7 +5127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -5137,7 +5141,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -5151,7 +5155,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>15</v>
       </c>
@@ -5165,7 +5169,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>16</v>
       </c>
@@ -5179,7 +5183,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>17</v>
       </c>
@@ -5193,7 +5197,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>198</v>
       </c>
@@ -5213,7 +5217,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>200</v>
       </c>
@@ -5233,7 +5237,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -5247,7 +5251,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -5261,7 +5265,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>205</v>
       </c>
@@ -5296,20 +5300,20 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:XFD1048576"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5329,7 +5333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>208</v>
       </c>
@@ -5349,7 +5353,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>210</v>
       </c>
@@ -5369,7 +5373,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -5383,7 +5387,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>215</v>
       </c>
@@ -5403,7 +5407,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>198</v>
       </c>
@@ -5423,7 +5427,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -5437,7 +5441,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>222</v>
       </c>
@@ -5457,7 +5461,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>225</v>
       </c>
@@ -5474,7 +5478,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>61</v>
       </c>
@@ -5485,7 +5489,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>230</v>
       </c>
@@ -5505,7 +5509,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5519,7 +5523,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5533,7 +5537,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>286</v>
       </c>
@@ -5553,7 +5557,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -5567,7 +5571,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -5581,7 +5585,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>237</v>
       </c>
@@ -5601,7 +5605,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>239</v>
       </c>
@@ -5621,7 +5625,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>33</v>
       </c>
@@ -5635,7 +5639,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>168</v>
       </c>
@@ -5655,7 +5659,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -5675,7 +5679,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>33</v>
       </c>
@@ -5689,7 +5693,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>245</v>
       </c>
@@ -5709,7 +5713,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>11</v>
       </c>
@@ -5723,7 +5727,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -5737,7 +5741,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>252</v>
       </c>
@@ -5757,7 +5761,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>255</v>
       </c>
@@ -5777,7 +5781,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -5791,7 +5795,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -5805,7 +5809,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -5825,7 +5829,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>262</v>
       </c>
@@ -5845,7 +5849,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>11</v>
       </c>
@@ -5859,7 +5863,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>267</v>
       </c>
@@ -5879,7 +5883,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -5893,7 +5897,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -5907,7 +5911,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>16</v>
       </c>
@@ -5921,7 +5925,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>274</v>
       </c>
@@ -5955,20 +5959,20 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" activeCellId="4" sqref="E3 E6 E11 E13 E15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5988,7 +5992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>278</v>
       </c>
@@ -6008,7 +6012,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="C3" t="s">
         <v>11</v>
@@ -6023,7 +6027,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>210</v>
       </c>
@@ -6043,7 +6047,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="C6" t="s">
         <v>33</v>
@@ -6058,7 +6062,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>198</v>
       </c>
@@ -6078,7 +6082,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -6092,7 +6096,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -6106,7 +6110,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -6120,7 +6124,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>222</v>
       </c>
@@ -6140,7 +6144,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>230</v>
       </c>
@@ -6173,21 +6177,21 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -6207,7 +6211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -6228,7 +6232,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -6249,7 +6253,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -6270,7 +6274,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -6291,7 +6295,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -6312,7 +6316,7 @@
         <v>-0.11764705882352941</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -6333,7 +6337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -6358,7 +6362,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>68</v>
       </c>

--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9007" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F1BC30D-132F-4C70-B364-4142B480CA62}"/>
+  <xr:revisionPtr revIDLastSave="9009" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50FEA33A-3D47-4675-940B-AFC6DAEA950C}"/>
   <bookViews>
-    <workbookView xWindow="15705" yWindow="750" windowWidth="21615" windowHeight="15345" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -3141,7 +3141,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F55FAC2A-1FA9-4F19-A44D-A6B6357EB2B9}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3185,7 +3185,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3520,21 +3520,21 @@
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>21</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>30</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>12</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>16</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>17</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>21</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>16</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>17</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>105</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -4008,21 +4008,21 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>11</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>132</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>21</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>12</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>148</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>152</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -4573,20 +4573,20 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>162</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>17</v>
       </c>
@@ -4715,21 +4715,21 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>168</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>169</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>251</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>178</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>183</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>11</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>17</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>21</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>30</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>31</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>15</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>16</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>17</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>198</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>200</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>205</v>
       </c>
@@ -5299,21 +5299,21 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>208</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>210</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>215</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>198</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>222</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>225</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>61</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>230</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>286</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>237</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>239</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>33</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>168</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>33</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>245</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>11</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>252</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>255</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>262</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>11</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>267</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>16</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>274</v>
       </c>
@@ -5959,20 +5959,20 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>278</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="C3" t="s">
         <v>11</v>
@@ -6027,7 +6027,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>210</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="C6" t="s">
         <v>33</v>
@@ -6062,7 +6062,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>198</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>222</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>230</v>
       </c>
@@ -6177,21 +6177,21 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>-0.11764705882352941</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>68</v>
       </c>

--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="9009" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50FEA33A-3D47-4675-940B-AFC6DAEA950C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -3141,7 +3141,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F55FAC2A-1FA9-4F19-A44D-A6B6357EB2B9}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4572,8 +4572,8 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4716,7 +4716,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5300,7 +5300,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5959,7 +5959,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9009" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50FEA33A-3D47-4675-940B-AFC6DAEA950C}"/>
+  <xr:revisionPtr revIDLastSave="9011" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7A02317-A733-4E0C-BCF6-D12C65AF4AE5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -3129,7 +3129,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{55160879-050C-43EF-9A81-8ABC9DC42D37}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -3141,7 +3141,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F55FAC2A-1FA9-4F19-A44D-A6B6357EB2B9}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3520,7 +3520,7 @@
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -4008,7 +4008,7 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -4573,7 +4573,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4715,7 +4715,7 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5299,7 +5299,7 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5958,7 +5958,7 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6177,7 +6177,7 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9011" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7A02317-A733-4E0C-BCF6-D12C65AF4AE5}"/>
+  <xr:revisionPtr revIDLastSave="9012" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37C4F5CA-97A1-4BF2-8A66-49311CF321C8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -3524,17 +3524,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>21</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>30</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>12</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>16</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>17</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>21</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>16</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>17</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>105</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -4012,17 +4012,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>11</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>132</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>21</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>12</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>148</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>152</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -4576,17 +4576,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>162</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>17</v>
       </c>
@@ -4719,17 +4719,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>168</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>169</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>251</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>178</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>183</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>11</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>17</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>21</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>30</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>31</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>15</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>16</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>17</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>198</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>200</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>205</v>
       </c>
@@ -5303,17 +5303,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>208</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>210</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>215</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>198</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>222</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>225</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>61</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>230</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>286</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>237</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>239</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>33</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>168</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>33</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>245</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>11</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>252</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>255</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>262</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>11</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>267</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>16</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>274</v>
       </c>
@@ -5962,17 +5962,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>278</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="C3" t="s">
         <v>11</v>
@@ -6027,7 +6027,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>210</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="C6" t="s">
         <v>33</v>
@@ -6062,7 +6062,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>198</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>222</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>230</v>
       </c>
@@ -6181,17 +6181,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>-0.11764705882352941</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>68</v>
       </c>

--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9012" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37C4F5CA-97A1-4BF2-8A66-49311CF321C8}"/>
+  <xr:revisionPtr revIDLastSave="9051" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{958D9717-AF82-451D-82F1-D9BEEB6DB22B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="2021" sheetId="28" r:id="rId4"/>
     <sheet name="2022" sheetId="33" r:id="rId5"/>
     <sheet name="2023" sheetId="36" r:id="rId6"/>
-    <sheet name="Stats" sheetId="1" r:id="rId7"/>
-    <sheet name="Wins-Losses" sheetId="37" r:id="rId8"/>
-    <sheet name="Winning Percentile Range" sheetId="39" r:id="rId9"/>
+    <sheet name="2024" sheetId="40" r:id="rId7"/>
+    <sheet name="Stats" sheetId="1" r:id="rId8"/>
+    <sheet name="Wins-Losses" sheetId="41" r:id="rId9"/>
+    <sheet name="Winning Percentile Range" sheetId="42" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="291">
   <si>
     <t>ROUND</t>
   </si>
@@ -902,6 +903,18 @@
   </si>
   <si>
     <t>MADRID OPEN</t>
+  </si>
+  <si>
+    <t>Elena-Gabriela Ruse (ROMANIA)</t>
+  </si>
+  <si>
+    <t>6-3 4-5 7-5</t>
+  </si>
+  <si>
+    <t>Elina Svitolina (UKRAINE)</t>
+  </si>
+  <si>
+    <t>6-7(5) 7-6(3) 6-1</t>
   </si>
 </sst>
 </file>
@@ -1040,8 +1053,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Emma Raducanu (GREAT BRITAIN): Wins-Losses</a:t>
+              <a:t>Emma Raducanu</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> (GREAT BRITAIN): Wins-Losses</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1107,10 +1125,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$7</c:f>
+              <c:f>Stats!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2018</c:v>
                 </c:pt>
@@ -1129,15 +1147,18 @@
                 <c:pt idx="5">
                   <c:v>2023</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$D$2:$D$7</c:f>
+              <c:f>Stats!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>22</c:v>
                 </c:pt>
@@ -1156,12 +1177,15 @@
                 <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3F5B-469C-B39A-98CABC5D4F93}"/>
+              <c16:uniqueId val="{00000000-A9C1-409C-BFB2-61117C3D22C8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1191,10 +1215,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$7</c:f>
+              <c:f>Stats!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2018</c:v>
                 </c:pt>
@@ -1213,15 +1237,18 @@
                 <c:pt idx="5">
                   <c:v>2023</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$E$2:$E$7</c:f>
+              <c:f>Stats!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -1240,12 +1267,15 @@
                 <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3F5B-469C-B39A-98CABC5D4F93}"/>
+              <c16:uniqueId val="{00000001-A9C1-409C-BFB2-61117C3D22C8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1259,11 +1289,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="838169936"/>
-        <c:axId val="838156624"/>
+        <c:axId val="1204609600"/>
+        <c:axId val="1201620960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="838169936"/>
+        <c:axId val="1204609600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1361,7 +1391,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="838156624"/>
+        <c:crossAx val="1201620960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1369,7 +1399,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="838156624"/>
+        <c:axId val="1201620960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1475,7 +1505,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="838169936"/>
+        <c:crossAx val="1204609600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1679,10 +1709,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$7</c:f>
+              <c:f>Stats!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2018</c:v>
                 </c:pt>
@@ -1701,15 +1731,18 @@
                 <c:pt idx="5">
                   <c:v>2023</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$F$2:$F$7</c:f>
+              <c:f>Stats!$F$2:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.72727272727272729</c:v>
                 </c:pt>
@@ -1728,13 +1761,16 @@
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1E03-4A74-853C-B4A292D94922}"/>
+              <c16:uniqueId val="{00000001-985D-47F9-AA3F-FFBC4F7F9001}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1748,11 +1784,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1053973904"/>
-        <c:axId val="1053980976"/>
+        <c:axId val="1204624960"/>
+        <c:axId val="1307781184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1053973904"/>
+        <c:axId val="1204624960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1850,7 +1886,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1053980976"/>
+        <c:crossAx val="1307781184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1858,7 +1894,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1053980976"/>
+        <c:axId val="1307781184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1964,7 +2000,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1053973904"/>
+        <c:crossAx val="1204624960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3126,7 +3162,19 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{55160879-050C-43EF-9A81-8ABC9DC42D37}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A0EC8FA6-0C58-467B-8992-B1F42B9B0C37}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{31576F11-5CBC-4059-9D4B-8BCB68099D2B}">
   <sheetPr/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3137,28 +3185,17 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F55FAC2A-1FA9-4F19-A44D-A6B6357EB2B9}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
+    <xdr:pos x="0" y="7620"/>
+    <xdr:ext cx="8564880" cy="5814060"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A50AB1D5-8C93-C610-E60B-C91ABA36F315}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A7D40EB-95EF-AEC0-EFDF-8A49F3937A5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3185,13 +3222,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656320" cy="6278880"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A276527-47EB-321F-936D-94CB41325415}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7728CBB-ECAC-90A4-C288-3101B1B6BA5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3520,21 +3557,21 @@
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3554,7 +3591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -3574,7 +3611,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -3588,7 +3625,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -3602,7 +3639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -3622,7 +3659,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>21</v>
       </c>
@@ -3636,7 +3673,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>30</v>
       </c>
@@ -3650,7 +3687,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -3664,7 +3701,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -3678,7 +3715,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -3692,7 +3729,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -3712,7 +3749,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>12</v>
       </c>
@@ -3726,7 +3763,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -3740,7 +3777,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -3754,7 +3791,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>16</v>
       </c>
@@ -3768,7 +3805,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>17</v>
       </c>
@@ -3782,7 +3819,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -3802,7 +3839,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -3822,7 +3859,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -3842,7 +3879,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>21</v>
       </c>
@@ -3856,7 +3893,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -3876,7 +3913,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -3890,7 +3927,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -3904,7 +3941,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>16</v>
       </c>
@@ -3918,7 +3955,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>17</v>
       </c>
@@ -3932,7 +3969,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>105</v>
       </c>
@@ -3952,7 +3989,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -3966,7 +4003,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -3980,7 +4017,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -4008,21 +4045,21 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4042,7 +4079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -4062,7 +4099,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4076,7 +4113,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -4096,7 +4133,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -4110,7 +4147,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -4124,7 +4161,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -4138,7 +4175,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -4152,7 +4189,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -4172,7 +4209,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -4186,7 +4223,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -4200,7 +4237,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -4214,7 +4251,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -4234,7 +4271,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -4254,7 +4291,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>11</v>
       </c>
@@ -4268,7 +4305,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -4282,7 +4319,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>132</v>
       </c>
@@ -4302,7 +4339,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -4316,7 +4353,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -4330,7 +4367,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -4344,7 +4381,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -4364,7 +4401,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>21</v>
       </c>
@@ -4378,7 +4415,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>12</v>
       </c>
@@ -4392,7 +4429,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -4406,7 +4443,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -4420,7 +4457,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>148</v>
       </c>
@@ -4440,7 +4477,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -4454,7 +4491,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>152</v>
       </c>
@@ -4474,7 +4511,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -4488,7 +4525,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -4502,7 +4539,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -4516,7 +4553,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -4530,7 +4567,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -4544,7 +4581,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -4572,21 +4609,21 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4606,7 +4643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -4626,7 +4663,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>162</v>
       </c>
@@ -4646,7 +4683,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -4660,7 +4697,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -4674,7 +4711,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -4688,7 +4725,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>17</v>
       </c>
@@ -4715,21 +4752,21 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4749,7 +4786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>168</v>
       </c>
@@ -4769,7 +4806,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>169</v>
       </c>
@@ -4789,7 +4826,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -4803,7 +4840,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -4817,7 +4854,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -4837,7 +4874,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -4851,7 +4888,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -4865,7 +4902,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -4879,7 +4916,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>251</v>
       </c>
@@ -4899,7 +4936,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>178</v>
       </c>
@@ -4919,7 +4956,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -4933,7 +4970,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -4947,7 +4984,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -4961,7 +4998,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -4975,7 +5012,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>183</v>
       </c>
@@ -4995,7 +5032,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>11</v>
       </c>
@@ -5009,7 +5046,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -5023,7 +5060,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -5037,7 +5074,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>17</v>
       </c>
@@ -5051,7 +5088,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -5071,7 +5108,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>21</v>
       </c>
@@ -5085,7 +5122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>30</v>
       </c>
@@ -5099,7 +5136,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>31</v>
       </c>
@@ -5113,7 +5150,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -5127,7 +5164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -5141,7 +5178,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -5155,7 +5192,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>15</v>
       </c>
@@ -5169,7 +5206,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>16</v>
       </c>
@@ -5183,7 +5220,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>17</v>
       </c>
@@ -5197,7 +5234,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>198</v>
       </c>
@@ -5217,7 +5254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>200</v>
       </c>
@@ -5237,7 +5274,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -5251,7 +5288,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -5265,7 +5302,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>205</v>
       </c>
@@ -5299,21 +5336,21 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5333,7 +5370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>208</v>
       </c>
@@ -5353,7 +5390,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>210</v>
       </c>
@@ -5373,7 +5410,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -5387,7 +5424,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>215</v>
       </c>
@@ -5407,7 +5444,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>198</v>
       </c>
@@ -5427,7 +5464,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -5441,7 +5478,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>222</v>
       </c>
@@ -5461,7 +5498,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>225</v>
       </c>
@@ -5478,7 +5515,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>61</v>
       </c>
@@ -5489,7 +5526,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>230</v>
       </c>
@@ -5509,7 +5546,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5523,7 +5560,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5537,7 +5574,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>286</v>
       </c>
@@ -5557,7 +5594,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -5571,7 +5608,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -5585,7 +5622,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>237</v>
       </c>
@@ -5605,7 +5642,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>239</v>
       </c>
@@ -5625,7 +5662,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>33</v>
       </c>
@@ -5639,7 +5676,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>168</v>
       </c>
@@ -5659,7 +5696,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -5679,7 +5716,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>33</v>
       </c>
@@ -5693,7 +5730,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>245</v>
       </c>
@@ -5713,7 +5750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>11</v>
       </c>
@@ -5727,7 +5764,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -5741,7 +5778,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>252</v>
       </c>
@@ -5761,7 +5798,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>255</v>
       </c>
@@ -5781,7 +5818,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -5795,7 +5832,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -5809,7 +5846,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -5829,7 +5866,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>262</v>
       </c>
@@ -5849,7 +5886,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>11</v>
       </c>
@@ -5863,7 +5900,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>267</v>
       </c>
@@ -5883,7 +5920,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -5897,7 +5934,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -5911,7 +5948,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>16</v>
       </c>
@@ -5925,7 +5962,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>274</v>
       </c>
@@ -5958,21 +5995,21 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5992,7 +6029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>278</v>
       </c>
@@ -6012,7 +6049,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="C3" t="s">
         <v>11</v>
@@ -6027,7 +6064,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>210</v>
       </c>
@@ -6047,7 +6084,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="C6" t="s">
         <v>33</v>
@@ -6062,7 +6099,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>198</v>
       </c>
@@ -6082,7 +6119,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -6096,7 +6133,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -6110,7 +6147,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -6124,7 +6161,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>222</v>
       </c>
@@ -6144,7 +6181,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>230</v>
       </c>
@@ -6171,27 +6208,109 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBAE6D7-B853-46EA-9964-516F91AAA0C7}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -6211,7 +6330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -6232,7 +6351,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -6253,7 +6372,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -6270,11 +6389,11 @@
         <v>2</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F7" si="0">(D4-E4)/D4</f>
+        <f t="shared" ref="F4:F8" si="0">(D4-E4)/D4</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -6295,7 +6414,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -6316,7 +6435,7 @@
         <v>-0.11764705882352941</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -6337,58 +6456,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2024</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
-        <f>SUM(B2:B7)</f>
-        <v>51</v>
-      </c>
-      <c r="C8" s="2">
-        <f>SUM(C2:C7)</f>
+      <c r="B9" s="2">
+        <f>SUM(B2:B8)</f>
+        <v>52</v>
+      </c>
+      <c r="C9" s="2">
+        <f>SUM(C2:C8)</f>
         <v>1</v>
       </c>
-      <c r="D8" s="2">
-        <f>SUM(D2:D7)</f>
-        <v>98</v>
-      </c>
-      <c r="E8" s="2">
-        <f>SUM(E2:E7)</f>
-        <v>49</v>
-      </c>
-      <c r="F8" s="6">
-        <f>(D8-E8)/D8</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="2">
-        <f>AVERAGE(B2:B7)</f>
-        <v>8.5</v>
-      </c>
-      <c r="C9" s="2">
-        <f>AVERAGE(C2:C7)</f>
-        <v>0.16666666666666666</v>
-      </c>
       <c r="D9" s="2">
-        <f>AVERAGE(D2:D7)</f>
-        <v>16.333333333333332</v>
+        <f>SUM(D2:D8)</f>
+        <v>99</v>
       </c>
       <c r="E9" s="2">
-        <f>AVERAGE(E2:E7)</f>
-        <v>8.1666666666666661</v>
+        <f>SUM(E2:E8)</f>
+        <v>50</v>
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.5</v>
+        <v>0.49494949494949497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="2">
+        <f>AVERAGE(B2:B8)</f>
+        <v>7.4285714285714288</v>
+      </c>
+      <c r="C10" s="2">
+        <f>AVERAGE(C2:C8)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D10" s="2">
+        <f>AVERAGE(D2:D8)</f>
+        <v>14.142857142857142</v>
+      </c>
+      <c r="E10" s="2">
+        <f>AVERAGE(E2:E8)</f>
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="F10" s="6">
+        <f>(D10-E10)/D10</f>
+        <v>0.49494949494949492</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F7">
+  <conditionalFormatting sqref="F2:F8">
     <cfRule type="iconSet" priority="41">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>

--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9051" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{958D9717-AF82-451D-82F1-D9BEEB6DB22B}"/>
+  <xr:revisionPtr revIDLastSave="9052" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62697D72-97E5-4B0A-9213-CAB7B83F2784}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -3165,7 +3165,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A0EC8FA6-0C58-467B-8992-B1F42B9B0C37}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -3557,18 +3557,18 @@
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -4045,18 +4045,18 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -4609,18 +4609,18 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -4752,18 +4752,18 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -5336,18 +5336,18 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -5995,18 +5995,18 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6214,7 +6214,7 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6296,18 +6296,18 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">

--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9052" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62697D72-97E5-4B0A-9213-CAB7B83F2784}"/>
+  <xr:revisionPtr revIDLastSave="9053" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEFB6678-ADEE-4A35-9575-B85A6415C6F9}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -3251,10 +3251,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3561,17 +3557,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3591,7 +3587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -3611,7 +3607,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -3625,7 +3621,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -3639,7 +3635,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -3659,7 +3655,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>21</v>
       </c>
@@ -3673,7 +3669,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>30</v>
       </c>
@@ -3687,7 +3683,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -3701,7 +3697,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -3715,7 +3711,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -3729,7 +3725,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -3749,7 +3745,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>12</v>
       </c>
@@ -3763,7 +3759,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -3777,7 +3773,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -3791,7 +3787,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>16</v>
       </c>
@@ -3805,7 +3801,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>17</v>
       </c>
@@ -3819,7 +3815,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -3839,7 +3835,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -3859,7 +3855,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -3879,7 +3875,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>21</v>
       </c>
@@ -3893,7 +3889,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -3913,7 +3909,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -3927,7 +3923,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -3941,7 +3937,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>16</v>
       </c>
@@ -3955,7 +3951,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>17</v>
       </c>
@@ -3969,7 +3965,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>105</v>
       </c>
@@ -3989,7 +3985,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -4003,7 +3999,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -4017,7 +4013,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -4049,17 +4045,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4079,7 +4075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -4099,7 +4095,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4113,7 +4109,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -4133,7 +4129,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -4147,7 +4143,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -4161,7 +4157,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -4175,7 +4171,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -4189,7 +4185,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -4209,7 +4205,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -4223,7 +4219,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -4237,7 +4233,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -4251,7 +4247,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -4271,7 +4267,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -4291,7 +4287,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>11</v>
       </c>
@@ -4305,7 +4301,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -4319,7 +4315,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>132</v>
       </c>
@@ -4339,7 +4335,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -4353,7 +4349,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -4367,7 +4363,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -4381,7 +4377,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -4401,7 +4397,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>21</v>
       </c>
@@ -4415,7 +4411,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>12</v>
       </c>
@@ -4429,7 +4425,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -4443,7 +4439,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -4457,7 +4453,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>148</v>
       </c>
@@ -4477,7 +4473,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -4491,7 +4487,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>152</v>
       </c>
@@ -4511,7 +4507,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -4525,7 +4521,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -4539,7 +4535,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -4553,7 +4549,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -4567,7 +4563,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -4581,7 +4577,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -4613,17 +4609,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4643,7 +4639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -4663,7 +4659,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>162</v>
       </c>
@@ -4683,7 +4679,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -4697,7 +4693,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -4711,7 +4707,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -4725,7 +4721,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>17</v>
       </c>
@@ -4756,17 +4752,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4786,7 +4782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>168</v>
       </c>
@@ -4806,7 +4802,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>169</v>
       </c>
@@ -4826,7 +4822,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -4840,7 +4836,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -4854,7 +4850,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -4874,7 +4870,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -4888,7 +4884,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -4902,7 +4898,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -4916,7 +4912,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>251</v>
       </c>
@@ -4936,7 +4932,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>178</v>
       </c>
@@ -4956,7 +4952,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -4970,7 +4966,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -4984,7 +4980,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -4998,7 +4994,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5012,7 +5008,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>183</v>
       </c>
@@ -5032,7 +5028,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>11</v>
       </c>
@@ -5046,7 +5042,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -5060,7 +5056,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -5074,7 +5070,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>17</v>
       </c>
@@ -5088,7 +5084,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -5108,7 +5104,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>21</v>
       </c>
@@ -5122,7 +5118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>30</v>
       </c>
@@ -5136,7 +5132,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>31</v>
       </c>
@@ -5150,7 +5146,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -5164,7 +5160,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -5178,7 +5174,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -5192,7 +5188,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>15</v>
       </c>
@@ -5206,7 +5202,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>16</v>
       </c>
@@ -5220,7 +5216,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>17</v>
       </c>
@@ -5234,7 +5230,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>198</v>
       </c>
@@ -5254,7 +5250,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>200</v>
       </c>
@@ -5274,7 +5270,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -5288,7 +5284,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -5302,7 +5298,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>205</v>
       </c>
@@ -5340,17 +5336,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5370,7 +5366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>208</v>
       </c>
@@ -5390,7 +5386,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>210</v>
       </c>
@@ -5410,7 +5406,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -5424,7 +5420,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>215</v>
       </c>
@@ -5444,7 +5440,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>198</v>
       </c>
@@ -5464,7 +5460,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -5478,7 +5474,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>222</v>
       </c>
@@ -5498,7 +5494,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>225</v>
       </c>
@@ -5515,7 +5511,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>61</v>
       </c>
@@ -5526,7 +5522,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>230</v>
       </c>
@@ -5546,7 +5542,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5560,7 +5556,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5574,7 +5570,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>286</v>
       </c>
@@ -5594,7 +5590,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -5608,7 +5604,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -5622,7 +5618,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>237</v>
       </c>
@@ -5642,7 +5638,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>239</v>
       </c>
@@ -5662,7 +5658,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>33</v>
       </c>
@@ -5676,7 +5672,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>168</v>
       </c>
@@ -5696,7 +5692,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -5716,7 +5712,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>33</v>
       </c>
@@ -5730,7 +5726,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>245</v>
       </c>
@@ -5750,7 +5746,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>11</v>
       </c>
@@ -5764,7 +5760,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -5778,7 +5774,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>252</v>
       </c>
@@ -5798,7 +5794,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>255</v>
       </c>
@@ -5818,7 +5814,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -5832,7 +5828,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -5846,7 +5842,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -5866,7 +5862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>262</v>
       </c>
@@ -5886,7 +5882,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>11</v>
       </c>
@@ -5900,7 +5896,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>267</v>
       </c>
@@ -5920,7 +5916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -5934,7 +5930,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -5948,7 +5944,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>16</v>
       </c>
@@ -5962,7 +5958,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>274</v>
       </c>
@@ -5999,17 +5995,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6029,7 +6025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>278</v>
       </c>
@@ -6049,7 +6045,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="C3" t="s">
         <v>11</v>
@@ -6064,7 +6060,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>210</v>
       </c>
@@ -6084,7 +6080,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="C6" t="s">
         <v>33</v>
@@ -6099,7 +6095,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>198</v>
       </c>
@@ -6119,7 +6115,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -6133,7 +6129,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -6147,7 +6143,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -6161,7 +6157,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>222</v>
       </c>
@@ -6181,7 +6177,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>230</v>
       </c>
@@ -6218,17 +6214,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6248,7 +6244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>278</v>
       </c>
@@ -6268,7 +6264,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="C3" t="s">
         <v>11</v>
@@ -6300,17 +6296,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -6330,7 +6326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -6351,7 +6347,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -6372,7 +6368,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -6393,7 +6389,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -6414,7 +6410,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -6435,7 +6431,7 @@
         <v>-0.11764705882352941</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -6456,7 +6452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -6477,7 +6473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -6502,7 +6498,7 @@
         <v>0.49494949494949497</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>68</v>
       </c>

--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9053" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEFB6678-ADEE-4A35-9575-B85A6415C6F9}"/>
+  <xr:revisionPtr revIDLastSave="9054" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B899360B-51F6-440D-A982-2D8DF4D5B6AA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="288">
   <si>
     <t>ROUND</t>
   </si>
@@ -386,9 +386,6 @@
     <t>Gabriela Lee (ROMANIA)</t>
   </si>
   <si>
-    <t>6-3 6-7(5) 6-3</t>
-  </si>
-  <si>
     <t>Valeria Savinykh (RUSSIA)</t>
   </si>
   <si>
@@ -527,9 +524,6 @@
     <t>Marie Benoit (BELGIUM)</t>
   </si>
   <si>
-    <t>6-2 2-2 RETIRED</t>
-  </si>
-  <si>
     <t>ITF SUNDERLAND ($25,000)</t>
   </si>
   <si>
@@ -875,9 +869,6 @@
     <t>6-3 7-6(4)</t>
   </si>
   <si>
-    <t>4-6 6-4 6-2</t>
-  </si>
-  <si>
     <t>AUCKLAND OPEN</t>
   </si>
   <si>
@@ -908,13 +899,13 @@
     <t>Elena-Gabriela Ruse (ROMANIA)</t>
   </si>
   <si>
-    <t>6-3 4-5 7-5</t>
-  </si>
-  <si>
     <t>Elina Svitolina (UKRAINE)</t>
   </si>
   <si>
     <t>6-7(5) 7-6(3) 6-1</t>
+  </si>
+  <si>
+    <t>6-3 4-6 7-5</t>
   </si>
 </sst>
 </file>
@@ -1744,7 +1735,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.72727272727272729</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.68</c:v>
@@ -3251,10 +3242,14 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3292,7 +3287,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3398,7 +3393,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3540,7 +3535,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3554,7 +3549,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3604,7 +3599,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4042,7 +4037,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4092,7 +4087,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4100,7 +4095,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
@@ -4111,7 +4106,7 @@
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -4120,13 +4115,13 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4134,7 +4129,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
@@ -4148,13 +4143,13 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4162,13 +4157,13 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4176,7 +4171,7 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>14</v>
@@ -4187,7 +4182,7 @@
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -4210,13 +4205,13 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4224,7 +4219,7 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>13</v>
@@ -4238,13 +4233,13 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4258,7 +4253,7 @@
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -4269,7 +4264,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -4278,7 +4273,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
@@ -4292,13 +4287,13 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4306,18 +4301,18 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -4326,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -4340,13 +4335,13 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -4368,7 +4363,7 @@
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
@@ -4379,7 +4374,7 @@
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B27" t="s">
         <v>19</v>
@@ -4388,7 +4383,7 @@
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
@@ -4402,7 +4397,7 @@
         <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
@@ -4416,7 +4411,7 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
@@ -4430,7 +4425,7 @@
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
@@ -4444,7 +4439,7 @@
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>14</v>
@@ -4455,7 +4450,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B33" t="s">
         <v>19</v>
@@ -4464,7 +4459,7 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
@@ -4478,18 +4473,18 @@
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B36" t="s">
         <v>19</v>
@@ -4498,7 +4493,7 @@
         <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
@@ -4512,7 +4507,7 @@
         <v>21</v>
       </c>
       <c r="D37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>13</v>
@@ -4526,7 +4521,7 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
@@ -4560,7 +4555,7 @@
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -4568,13 +4563,13 @@
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -4582,7 +4577,7 @@
         <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
@@ -4606,7 +4601,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4650,18 +4645,18 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>161</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -4670,7 +4665,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
@@ -4684,7 +4679,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
@@ -4698,7 +4693,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
@@ -4712,7 +4707,7 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
@@ -4732,7 +4727,7 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4749,7 +4744,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4784,7 +4779,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -4799,12 +4794,12 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -4813,13 +4808,13 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4841,13 +4836,13 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4861,7 +4856,7 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -4889,7 +4884,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -4909,12 +4904,12 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -4923,7 +4918,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
@@ -4934,7 +4929,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -4943,7 +4938,7 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
@@ -4991,7 +4986,7 @@
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4999,18 +4994,18 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -5025,7 +5020,7 @@
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5033,7 +5028,7 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -5047,13 +5042,13 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -5061,13 +5056,13 @@
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -5075,13 +5070,13 @@
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5109,7 +5104,7 @@
         <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
@@ -5123,7 +5118,7 @@
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
@@ -5137,7 +5132,7 @@
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
@@ -5151,7 +5146,7 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
@@ -5165,7 +5160,7 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
@@ -5179,7 +5174,7 @@
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
@@ -5207,7 +5202,7 @@
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>13</v>
@@ -5221,7 +5216,7 @@
         <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
@@ -5232,7 +5227,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B38" t="s">
         <v>19</v>
@@ -5241,7 +5236,7 @@
         <v>33</v>
       </c>
       <c r="D38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>14</v>
@@ -5252,7 +5247,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B40" t="s">
         <v>19</v>
@@ -5261,13 +5256,13 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -5275,7 +5270,7 @@
         <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
@@ -5289,7 +5284,7 @@
         <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>14</v>
@@ -5300,7 +5295,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B44" t="s">
         <v>19</v>
@@ -5309,13 +5304,13 @@
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -5333,7 +5328,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5368,7 +5363,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -5377,18 +5372,18 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -5397,13 +5392,13 @@
         <v>31</v>
       </c>
       <c r="D4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
         <v>211</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5411,18 +5406,18 @@
         <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -5431,18 +5426,18 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -5451,13 +5446,13 @@
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -5465,18 +5460,18 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -5485,30 +5480,30 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D14" t="s">
         <v>225</v>
       </c>
-      <c r="B14" t="s">
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
         <v>226</v>
-      </c>
-      <c r="D14" t="s">
-        <v>227</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -5519,21 +5514,21 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>13</v>
@@ -5547,13 +5542,13 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5561,7 +5556,7 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
@@ -5572,22 +5567,22 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B21" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5595,7 +5590,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -5609,53 +5604,53 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B25" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C25" t="s">
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B27" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C27" t="s">
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -5663,18 +5658,18 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
@@ -5683,13 +5678,13 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -5703,7 +5698,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
@@ -5717,7 +5712,7 @@
         <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
@@ -5728,7 +5723,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B35" t="s">
         <v>19</v>
@@ -5737,7 +5732,7 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>13</v>
@@ -5751,13 +5746,13 @@
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -5765,18 +5760,18 @@
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B39" t="s">
         <v>19</v>
@@ -5785,18 +5780,18 @@
         <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B41" t="s">
         <v>19</v>
@@ -5805,13 +5800,13 @@
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -5819,13 +5814,13 @@
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -5833,7 +5828,7 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>14</v>
@@ -5853,7 +5848,7 @@
         <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>14</v>
@@ -5864,7 +5859,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B47" t="s">
         <v>19</v>
@@ -5873,13 +5868,13 @@
         <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -5887,18 +5882,18 @@
         <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B50" t="s">
         <v>19</v>
@@ -5907,7 +5902,7 @@
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>13</v>
@@ -5921,7 +5916,7 @@
         <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>13</v>
@@ -5935,13 +5930,13 @@
         <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F52" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -5949,18 +5944,18 @@
         <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B55" t="s">
         <v>19</v>
@@ -5969,7 +5964,7 @@
         <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>14</v>
@@ -5992,7 +5987,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6027,7 +6022,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -6036,13 +6031,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6051,18 +6046,18 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -6071,7 +6066,7 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
@@ -6086,18 +6081,18 @@
         <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -6106,7 +6101,7 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -6120,13 +6115,13 @@
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6134,13 +6129,13 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -6148,18 +6143,18 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -6168,27 +6163,27 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
@@ -6211,7 +6206,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6246,7 +6241,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -6255,13 +6250,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>287</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6270,13 +6265,13 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -6293,7 +6288,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6342,9 +6337,8 @@
       <c r="E2">
         <v>6</v>
       </c>
-      <c r="F2" s="3">
-        <f>(D2-E2)/D2</f>
-        <v>0.72727272727272729</v>
+      <c r="F2" s="3" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">

--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9054" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B899360B-51F6-440D-A982-2D8DF4D5B6AA}"/>
+  <xr:revisionPtr revIDLastSave="9101" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D71E5776-430D-4949-BD8F-B10D4A968ACA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="294">
   <si>
     <t>ROUND</t>
   </si>
@@ -906,6 +906,24 @@
   </si>
   <si>
     <t>6-3 4-6 7-5</t>
+  </si>
+  <si>
+    <t>Shelby Rogers (USA)</t>
+  </si>
+  <si>
+    <t>Wang Yafan (CHINA)</t>
+  </si>
+  <si>
+    <t>6-4 4-6 6-4</t>
+  </si>
+  <si>
+    <t>6-3 6-7(5) 6-3</t>
+  </si>
+  <si>
+    <t>2-6 2-2 RETIRED</t>
+  </si>
+  <si>
+    <t>4-6 6-4 6-2</t>
   </si>
 </sst>
 </file>
@@ -1169,7 +1187,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1259,7 +1277,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1735,7 +1753,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.72727272727272729</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.68</c:v>
@@ -3156,7 +3174,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A0EC8FA6-0C58-467B-8992-B1F42B9B0C37}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -3179,8 +3197,8 @@
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="7620"/>
-    <xdr:ext cx="8564880" cy="5814060"/>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3213,7 +3231,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
+    <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3240,10 +3258,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3548,8 +3562,8 @@
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3599,7 +3613,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>287</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4036,8 +4050,8 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4087,7 +4101,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4600,8 +4614,8 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4651,7 +4665,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4743,8 +4757,8 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4794,7 +4808,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>287</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5327,8 +5341,8 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5378,7 +5392,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5986,8 +6000,8 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6037,7 +6051,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6203,17 +6217,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
@@ -6272,6 +6286,40 @@
       </c>
       <c r="F3" t="s">
         <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -6287,8 +6335,8 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6337,8 +6385,9 @@
       <c r="E2">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>287</v>
+      <c r="F2" s="3">
+        <f>(D2-E2)/D2</f>
+        <v>0.72727272727272729</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6451,16 +6500,16 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
@@ -6473,7 +6522,7 @@
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2">
         <f>SUM(C2:C8)</f>
@@ -6481,15 +6530,15 @@
       </c>
       <c r="D9" s="2">
         <f>SUM(D2:D8)</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E9" s="2">
         <f>SUM(E2:E8)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.49494949494949497</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6498,7 +6547,7 @@
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>7.4285714285714288</v>
+        <v>7.5714285714285712</v>
       </c>
       <c r="C10" s="2">
         <f>AVERAGE(C2:C8)</f>
@@ -6506,15 +6555,15 @@
       </c>
       <c r="D10" s="2">
         <f>AVERAGE(D2:D8)</f>
-        <v>14.142857142857142</v>
+        <v>14.285714285714286</v>
       </c>
       <c r="E10" s="2">
         <f>AVERAGE(E2:E8)</f>
-        <v>7.1428571428571432</v>
+        <v>7.2857142857142856</v>
       </c>
       <c r="F10" s="6">
         <f>(D10-E10)/D10</f>
-        <v>0.49494949494949492</v>
+        <v>0.49000000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9101" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D71E5776-430D-4949-BD8F-B10D4A968ACA}"/>
+  <xr:revisionPtr revIDLastSave="9113" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09A4588E-9566-45DA-864B-F0387D4C40B3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="17790" yWindow="3750" windowWidth="19305" windowHeight="17130" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="297">
   <si>
     <t>ROUND</t>
   </si>
@@ -924,6 +924,15 @@
   </si>
   <si>
     <t>4-6 6-4 6-2</t>
+  </si>
+  <si>
+    <t>ABU DHABI OPEN</t>
+  </si>
+  <si>
+    <t>Marie Bouzková (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Ons Jabeur (TUNISIA)</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1196,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1277,7 +1286,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3186,7 +3195,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{31576F11-5CBC-4059-9D4B-8BCB68099D2B}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -3260,10 +3269,14 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3301,7 +3314,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3407,7 +3420,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3549,7 +3562,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6217,10 +6230,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6228,7 +6241,7 @@
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
@@ -6320,6 +6333,40 @@
       </c>
       <c r="F6" t="s">
         <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -6335,7 +6382,7 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -6500,16 +6547,16 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
@@ -6522,7 +6569,7 @@
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2">
         <f>SUM(C2:C8)</f>
@@ -6530,15 +6577,15 @@
       </c>
       <c r="D9" s="2">
         <f>SUM(D2:D8)</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E9" s="2">
         <f>SUM(E2:E8)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.49</v>
+        <v>0.48514851485148514</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6547,7 +6594,7 @@
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>7.5714285714285712</v>
+        <v>7.7142857142857144</v>
       </c>
       <c r="C10" s="2">
         <f>AVERAGE(C2:C8)</f>
@@ -6555,15 +6602,15 @@
       </c>
       <c r="D10" s="2">
         <f>AVERAGE(D2:D8)</f>
-        <v>14.285714285714286</v>
+        <v>14.428571428571429</v>
       </c>
       <c r="E10" s="2">
         <f>AVERAGE(E2:E8)</f>
-        <v>7.2857142857142856</v>
+        <v>7.4285714285714288</v>
       </c>
       <c r="F10" s="6">
         <f>(D10-E10)/D10</f>
-        <v>0.49000000000000005</v>
+        <v>0.48514851485148514</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9113" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09A4588E-9566-45DA-864B-F0387D4C40B3}"/>
+  <xr:revisionPtr revIDLastSave="9121" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B657813-74EF-457F-85AF-3F5A2ED1A9A9}"/>
   <bookViews>
-    <workbookView xWindow="17790" yWindow="3750" windowWidth="19305" windowHeight="17130" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="299">
   <si>
     <t>ROUND</t>
   </si>
@@ -933,6 +933,12 @@
   </si>
   <si>
     <t>Ons Jabeur (TUNISIA)</t>
+  </si>
+  <si>
+    <t>QATAR OPEN</t>
+  </si>
+  <si>
+    <t>6-0 7-6(6)</t>
   </si>
 </sst>
 </file>
@@ -1286,7 +1292,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1780,7 +1786,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-0.33333333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5355,7 +5361,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6014,7 +6020,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6230,10 +6236,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6367,6 +6373,26 @@
       </c>
       <c r="F9" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>297</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -6547,7 +6573,7 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -6556,11 +6582,11 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.33333333333333331</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -6569,7 +6595,7 @@
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2">
         <f>SUM(C2:C8)</f>
@@ -6581,11 +6607,11 @@
       </c>
       <c r="E9" s="2">
         <f>SUM(E2:E8)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.48514851485148514</v>
+        <v>0.47524752475247523</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6594,7 +6620,7 @@
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>7.7142857142857144</v>
+        <v>7.8571428571428568</v>
       </c>
       <c r="C10" s="2">
         <f>AVERAGE(C2:C8)</f>
@@ -6606,11 +6632,11 @@
       </c>
       <c r="E10" s="2">
         <f>AVERAGE(E2:E8)</f>
-        <v>7.4285714285714288</v>
+        <v>7.5714285714285712</v>
       </c>
       <c r="F10" s="6">
         <f>(D10-E10)/D10</f>
-        <v>0.48514851485148514</v>
+        <v>0.47524752475247528</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9121" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B657813-74EF-457F-85AF-3F5A2ED1A9A9}"/>
+  <xr:revisionPtr revIDLastSave="9138" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39125D6E-3C2E-4A18-A159-6544B6EB2A38}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="302">
   <si>
     <t>ROUND</t>
   </si>
@@ -939,6 +939,15 @@
   </si>
   <si>
     <t>6-0 7-6(6)</t>
+  </si>
+  <si>
+    <t>Rebeka Masarova (SPAIN)</t>
+  </si>
+  <si>
+    <t>4-0 RETIRED</t>
+  </si>
+  <si>
+    <t>Aryna Sabalenka (BELARUS)</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1211,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1292,7 +1301,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1786,7 +1795,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.33333333333333331</c:v>
+                  <c:v>-0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3280,9 +3289,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3320,7 +3329,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3426,7 +3435,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3568,7 +3577,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6236,15 +6245,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E13" activeCellId="3" sqref="E2 E5 E8 E13:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
@@ -6393,6 +6402,54 @@
       </c>
       <c r="F11" t="s">
         <v>298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>299</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>301</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -6573,20 +6630,20 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>-0.33333333333333331</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -6595,7 +6652,7 @@
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2">
         <f>SUM(C2:C8)</f>
@@ -6603,15 +6660,15 @@
       </c>
       <c r="D9" s="2">
         <f>SUM(D2:D8)</f>
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E9" s="2">
         <f>SUM(E2:E8)</f>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.47524752475247523</v>
+        <v>0.46601941747572817</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6620,7 +6677,7 @@
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>7.8571428571428568</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2">
         <f>AVERAGE(C2:C8)</f>
@@ -6628,15 +6685,15 @@
       </c>
       <c r="D10" s="2">
         <f>AVERAGE(D2:D8)</f>
-        <v>14.428571428571429</v>
+        <v>14.714285714285714</v>
       </c>
       <c r="E10" s="2">
         <f>AVERAGE(E2:E8)</f>
-        <v>7.5714285714285712</v>
+        <v>7.8571428571428568</v>
       </c>
       <c r="F10" s="6">
         <f>(D10-E10)/D10</f>
-        <v>0.47524752475247528</v>
+        <v>0.46601941747572817</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9138" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39125D6E-3C2E-4A18-A159-6544B6EB2A38}"/>
+  <xr:revisionPtr revIDLastSave="9163" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34BD1505-D6E3-445A-A0F5-C5055AAE8C21}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="307">
   <si>
     <t>ROUND</t>
   </si>
@@ -948,6 +948,21 @@
   </si>
   <si>
     <t>Aryna Sabalenka (BELARUS)</t>
+  </si>
+  <si>
+    <t>4-6 6-1 7-6(1)</t>
+  </si>
+  <si>
+    <t>Diane Parry (FRANCE)</t>
+  </si>
+  <si>
+    <t>Angelique Kerber (GERMANY)</t>
+  </si>
+  <si>
+    <t>6-0 7-5</t>
+  </si>
+  <si>
+    <t>7-6(2) 6-3</t>
   </si>
 </sst>
 </file>
@@ -1211,7 +1226,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1795,7 +1810,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.2</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5369,8 +5384,8 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6245,10 +6260,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" activeCellId="3" sqref="E2 E5 E8 E13:E14"/>
+      <selection activeCell="E22" activeCellId="5" sqref="E3 E6 E9 E11 E15 E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6452,6 +6467,82 @@
         <v>23</v>
       </c>
     </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>223</v>
+      </c>
+      <c r="B17" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" t="s">
+        <v>216</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>303</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>228</v>
+      </c>
+      <c r="B20" t="s">
+        <v>224</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>304</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>238</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>231</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>306</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -6466,7 +6557,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6630,20 +6721,20 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>-0.2</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -6652,7 +6743,7 @@
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2">
         <f>SUM(C2:C8)</f>
@@ -6660,7 +6751,7 @@
       </c>
       <c r="D9" s="2">
         <f>SUM(D2:D8)</f>
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E9" s="2">
         <f>SUM(E2:E8)</f>
@@ -6668,7 +6759,7 @@
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.46601941747572817</v>
+        <v>0.48598130841121495</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6677,7 +6768,7 @@
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>8</v>
+        <v>8.2857142857142865</v>
       </c>
       <c r="C10" s="2">
         <f>AVERAGE(C2:C8)</f>
@@ -6685,7 +6776,7 @@
       </c>
       <c r="D10" s="2">
         <f>AVERAGE(D2:D8)</f>
-        <v>14.714285714285714</v>
+        <v>15.285714285714286</v>
       </c>
       <c r="E10" s="2">
         <f>AVERAGE(E2:E8)</f>
@@ -6693,7 +6784,7 @@
       </c>
       <c r="F10" s="6">
         <f>(D10-E10)/D10</f>
-        <v>0.46601941747572817</v>
+        <v>0.48598130841121501</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9163" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34BD1505-D6E3-445A-A0F5-C5055AAE8C21}"/>
+  <xr:revisionPtr revIDLastSave="9170" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F989F2FD-459C-417E-86E0-365B52825128}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="308">
   <si>
     <t>ROUND</t>
   </si>
@@ -963,6 +963,9 @@
   </si>
   <si>
     <t>7-6(2) 6-3</t>
+  </si>
+  <si>
+    <t>María Lourdes Carlé (ARGENTINA)</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1319,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1810,7 +1813,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.22222222222222221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3609,17 +3612,17 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3639,7 +3642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -3659,7 +3662,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -3673,7 +3676,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -3687,7 +3690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -3707,7 +3710,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>21</v>
       </c>
@@ -3721,7 +3724,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>30</v>
       </c>
@@ -3735,7 +3738,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -3749,7 +3752,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -3763,7 +3766,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -3777,7 +3780,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -3797,7 +3800,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>12</v>
       </c>
@@ -3811,7 +3814,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -3825,7 +3828,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -3839,7 +3842,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>16</v>
       </c>
@@ -3853,7 +3856,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>17</v>
       </c>
@@ -3867,7 +3870,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -3887,7 +3890,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -3907,7 +3910,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -3927,7 +3930,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>21</v>
       </c>
@@ -3941,7 +3944,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -3961,7 +3964,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -3975,7 +3978,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -3989,7 +3992,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>16</v>
       </c>
@@ -4003,7 +4006,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>17</v>
       </c>
@@ -4017,7 +4020,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>105</v>
       </c>
@@ -4037,7 +4040,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -4051,7 +4054,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -4065,7 +4068,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -4097,17 +4100,17 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4127,7 +4130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -4147,7 +4150,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4161,7 +4164,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -4181,7 +4184,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -4195,7 +4198,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -4209,7 +4212,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -4223,7 +4226,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -4237,7 +4240,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -4257,7 +4260,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -4271,7 +4274,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -4285,7 +4288,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -4299,7 +4302,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -4319,7 +4322,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>131</v>
       </c>
@@ -4339,7 +4342,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>11</v>
       </c>
@@ -4353,7 +4356,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -4367,7 +4370,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>131</v>
       </c>
@@ -4387,7 +4390,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -4401,7 +4404,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -4415,7 +4418,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -4429,7 +4432,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>141</v>
       </c>
@@ -4449,7 +4452,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>21</v>
       </c>
@@ -4463,7 +4466,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>12</v>
       </c>
@@ -4477,7 +4480,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -4491,7 +4494,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -4505,7 +4508,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>147</v>
       </c>
@@ -4525,7 +4528,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -4539,7 +4542,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>151</v>
       </c>
@@ -4559,7 +4562,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -4573,7 +4576,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -4587,7 +4590,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -4601,7 +4604,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -4615,7 +4618,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -4629,7 +4632,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -4661,17 +4664,17 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4691,7 +4694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -4711,7 +4714,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -4731,7 +4734,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -4745,7 +4748,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -4759,7 +4762,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -4773,7 +4776,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>17</v>
       </c>
@@ -4804,17 +4807,17 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4834,7 +4837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>166</v>
       </c>
@@ -4854,7 +4857,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>167</v>
       </c>
@@ -4874,7 +4877,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -4888,7 +4891,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -4902,7 +4905,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -4922,7 +4925,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -4936,7 +4939,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -4950,7 +4953,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -4964,7 +4967,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>249</v>
       </c>
@@ -4984,7 +4987,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>176</v>
       </c>
@@ -5004,7 +5007,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -5018,7 +5021,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -5032,7 +5035,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5046,7 +5049,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5060,7 +5063,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>181</v>
       </c>
@@ -5080,7 +5083,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>11</v>
       </c>
@@ -5094,7 +5097,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -5108,7 +5111,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -5122,7 +5125,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>17</v>
       </c>
@@ -5136,7 +5139,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -5156,7 +5159,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>21</v>
       </c>
@@ -5170,7 +5173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>30</v>
       </c>
@@ -5184,7 +5187,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>31</v>
       </c>
@@ -5198,7 +5201,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -5212,7 +5215,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -5226,7 +5229,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -5240,7 +5243,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>15</v>
       </c>
@@ -5254,7 +5257,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>16</v>
       </c>
@@ -5268,7 +5271,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>17</v>
       </c>
@@ -5282,7 +5285,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>196</v>
       </c>
@@ -5302,7 +5305,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>198</v>
       </c>
@@ -5322,7 +5325,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -5336,7 +5339,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -5350,7 +5353,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>203</v>
       </c>
@@ -5385,20 +5388,20 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5418,7 +5421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>206</v>
       </c>
@@ -5438,7 +5441,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>208</v>
       </c>
@@ -5458,7 +5461,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -5472,7 +5475,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>213</v>
       </c>
@@ -5492,7 +5495,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>196</v>
       </c>
@@ -5512,7 +5515,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -5526,7 +5529,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>220</v>
       </c>
@@ -5546,7 +5549,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>223</v>
       </c>
@@ -5563,7 +5566,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>61</v>
       </c>
@@ -5574,7 +5577,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>228</v>
       </c>
@@ -5594,7 +5597,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5608,7 +5611,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5622,7 +5625,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>283</v>
       </c>
@@ -5642,7 +5645,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -5656,7 +5659,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -5670,7 +5673,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>235</v>
       </c>
@@ -5690,7 +5693,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>237</v>
       </c>
@@ -5710,7 +5713,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>33</v>
       </c>
@@ -5724,7 +5727,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>166</v>
       </c>
@@ -5744,7 +5747,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -5764,7 +5767,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>33</v>
       </c>
@@ -5778,7 +5781,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>243</v>
       </c>
@@ -5798,7 +5801,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>11</v>
       </c>
@@ -5812,7 +5815,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -5826,7 +5829,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>250</v>
       </c>
@@ -5846,7 +5849,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>253</v>
       </c>
@@ -5866,7 +5869,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -5880,7 +5883,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -5894,7 +5897,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -5914,7 +5917,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>260</v>
       </c>
@@ -5934,7 +5937,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>11</v>
       </c>
@@ -5948,7 +5951,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>265</v>
       </c>
@@ -5968,7 +5971,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -5982,7 +5985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -5996,7 +5999,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>16</v>
       </c>
@@ -6010,7 +6013,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>272</v>
       </c>
@@ -6047,17 +6050,17 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6077,7 +6080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>275</v>
       </c>
@@ -6097,7 +6100,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="C3" t="s">
         <v>11</v>
@@ -6112,7 +6115,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>208</v>
       </c>
@@ -6132,7 +6135,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="C6" t="s">
         <v>33</v>
@@ -6147,7 +6150,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>196</v>
       </c>
@@ -6167,7 +6170,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -6181,7 +6184,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -6195,7 +6198,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -6209,7 +6212,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>220</v>
       </c>
@@ -6229,7 +6232,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>228</v>
       </c>
@@ -6260,23 +6263,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" activeCellId="5" sqref="E3 E6 E9 E11 E15 E22"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6296,7 +6299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>275</v>
       </c>
@@ -6316,7 +6319,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="C3" t="s">
         <v>11</v>
@@ -6331,7 +6334,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>208</v>
       </c>
@@ -6351,7 +6354,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>33</v>
       </c>
@@ -6365,7 +6368,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>294</v>
       </c>
@@ -6385,7 +6388,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -6399,7 +6402,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>297</v>
       </c>
@@ -6419,7 +6422,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>196</v>
       </c>
@@ -6439,7 +6442,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>33</v>
       </c>
@@ -6453,7 +6456,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -6467,7 +6470,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>223</v>
       </c>
@@ -6484,7 +6487,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>303</v>
       </c>
@@ -6495,7 +6498,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>228</v>
       </c>
@@ -6515,7 +6518,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -6529,7 +6532,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -6541,6 +6544,26 @@
       </c>
       <c r="F22" t="s">
         <v>306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B24" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>307</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -6557,20 +6580,20 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -6590,7 +6613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -6611,7 +6634,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -6632,7 +6655,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -6653,7 +6676,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -6674,7 +6697,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -6695,7 +6718,7 @@
         <v>-0.11764705882352941</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -6716,12 +6739,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -6730,20 +6753,20 @@
         <v>9</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.22222222222222221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2">
         <f>SUM(C2:C8)</f>
@@ -6755,20 +6778,20 @@
       </c>
       <c r="E9" s="2">
         <f>SUM(E2:E8)</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.48598130841121495</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.47663551401869159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>8.2857142857142865</v>
+        <v>8.4285714285714288</v>
       </c>
       <c r="C10" s="2">
         <f>AVERAGE(C2:C8)</f>
@@ -6780,11 +6803,11 @@
       </c>
       <c r="E10" s="2">
         <f>AVERAGE(E2:E8)</f>
-        <v>7.8571428571428568</v>
+        <v>8</v>
       </c>
       <c r="F10" s="6">
         <f>(D10-E10)/D10</f>
-        <v>0.48598130841121501</v>
+        <v>0.47663551401869164</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9170" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F989F2FD-459C-417E-86E0-365B52825128}"/>
+  <xr:revisionPtr revIDLastSave="9192" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFE9767F-3500-4723-A7A5-85D6B6D4FFDE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="314">
   <si>
     <t>ROUND</t>
   </si>
@@ -966,6 +966,24 @@
   </si>
   <si>
     <t>María Lourdes Carlé (ARGENTINA)</t>
+  </si>
+  <si>
+    <t>Ena Shibahara (JAPAN)</t>
+  </si>
+  <si>
+    <t>WALKOVER</t>
+  </si>
+  <si>
+    <t>6-7(13) 6-3 6-4</t>
+  </si>
+  <si>
+    <t>Daria Snigur (UKRAINE)</t>
+  </si>
+  <si>
+    <t>Francesca Jones (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>Katie Boulter (GREAT BRITAIN)</t>
   </si>
 </sst>
 </file>
@@ -1229,7 +1247,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1319,7 +1337,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1813,7 +1831,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22222222222222221</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3302,10 +3320,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -3612,17 +3626,17 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3642,7 +3656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -3662,7 +3676,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -3676,7 +3690,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -3690,7 +3704,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -3710,7 +3724,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>21</v>
       </c>
@@ -3724,7 +3738,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>30</v>
       </c>
@@ -3738,7 +3752,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -3752,7 +3766,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -3766,7 +3780,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -3780,7 +3794,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -3800,7 +3814,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>12</v>
       </c>
@@ -3814,7 +3828,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -3828,7 +3842,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -3842,7 +3856,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>16</v>
       </c>
@@ -3856,7 +3870,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>17</v>
       </c>
@@ -3870,7 +3884,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -3890,7 +3904,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -3910,7 +3924,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -3930,7 +3944,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>21</v>
       </c>
@@ -3944,7 +3958,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -3964,7 +3978,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -3978,7 +3992,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -3992,7 +4006,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>16</v>
       </c>
@@ -4006,7 +4020,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>17</v>
       </c>
@@ -4020,7 +4034,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>105</v>
       </c>
@@ -4040,7 +4054,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -4054,7 +4068,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -4068,7 +4082,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -4100,17 +4114,17 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4130,7 +4144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -4150,7 +4164,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4164,7 +4178,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -4184,7 +4198,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -4198,7 +4212,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -4212,7 +4226,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -4226,7 +4240,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -4240,7 +4254,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -4260,7 +4274,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -4274,7 +4288,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -4288,7 +4302,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -4302,7 +4316,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -4322,7 +4336,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>131</v>
       </c>
@@ -4342,7 +4356,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>11</v>
       </c>
@@ -4356,7 +4370,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -4370,7 +4384,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>131</v>
       </c>
@@ -4390,7 +4404,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -4404,7 +4418,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -4418,7 +4432,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -4432,7 +4446,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>141</v>
       </c>
@@ -4452,7 +4466,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>21</v>
       </c>
@@ -4466,7 +4480,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>12</v>
       </c>
@@ -4480,7 +4494,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -4494,7 +4508,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -4508,7 +4522,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>147</v>
       </c>
@@ -4528,7 +4542,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -4542,7 +4556,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>151</v>
       </c>
@@ -4562,7 +4576,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -4576,7 +4590,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -4590,7 +4604,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -4604,7 +4618,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -4618,7 +4632,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -4632,7 +4646,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -4664,17 +4678,17 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4694,7 +4708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -4714,7 +4728,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -4734,7 +4748,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -4748,7 +4762,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -4762,7 +4776,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -4776,7 +4790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>17</v>
       </c>
@@ -4807,17 +4821,17 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4837,7 +4851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>166</v>
       </c>
@@ -4857,7 +4871,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>167</v>
       </c>
@@ -4877,7 +4891,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -4891,7 +4905,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -4905,7 +4919,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -4925,7 +4939,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -4939,7 +4953,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -4953,7 +4967,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -4967,7 +4981,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>249</v>
       </c>
@@ -4987,7 +5001,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>176</v>
       </c>
@@ -5007,7 +5021,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -5021,7 +5035,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -5035,7 +5049,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5049,7 +5063,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5063,7 +5077,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>181</v>
       </c>
@@ -5083,7 +5097,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>11</v>
       </c>
@@ -5097,7 +5111,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -5111,7 +5125,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -5125,7 +5139,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>17</v>
       </c>
@@ -5139,7 +5153,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -5159,7 +5173,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>21</v>
       </c>
@@ -5173,7 +5187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>30</v>
       </c>
@@ -5187,7 +5201,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>31</v>
       </c>
@@ -5201,7 +5215,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -5215,7 +5229,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -5229,7 +5243,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -5243,7 +5257,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>15</v>
       </c>
@@ -5257,7 +5271,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>16</v>
       </c>
@@ -5271,7 +5285,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>17</v>
       </c>
@@ -5285,7 +5299,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>196</v>
       </c>
@@ -5305,7 +5319,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>198</v>
       </c>
@@ -5325,7 +5339,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -5339,7 +5353,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -5353,7 +5367,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>203</v>
       </c>
@@ -5391,17 +5405,17 @@
       <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5421,7 +5435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>206</v>
       </c>
@@ -5441,7 +5455,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>208</v>
       </c>
@@ -5461,7 +5475,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -5475,7 +5489,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>213</v>
       </c>
@@ -5495,7 +5509,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>196</v>
       </c>
@@ -5515,7 +5529,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -5529,7 +5543,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>220</v>
       </c>
@@ -5549,7 +5563,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>223</v>
       </c>
@@ -5566,7 +5580,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>61</v>
       </c>
@@ -5577,7 +5591,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>228</v>
       </c>
@@ -5597,7 +5611,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5611,7 +5625,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5625,7 +5639,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>283</v>
       </c>
@@ -5645,7 +5659,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -5659,7 +5673,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -5673,7 +5687,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>235</v>
       </c>
@@ -5693,7 +5707,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>237</v>
       </c>
@@ -5713,7 +5727,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>33</v>
       </c>
@@ -5727,7 +5741,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>166</v>
       </c>
@@ -5747,7 +5761,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -5767,7 +5781,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>33</v>
       </c>
@@ -5781,7 +5795,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>243</v>
       </c>
@@ -5801,7 +5815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>11</v>
       </c>
@@ -5815,7 +5829,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -5829,7 +5843,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>250</v>
       </c>
@@ -5849,7 +5863,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>253</v>
       </c>
@@ -5869,7 +5883,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -5883,7 +5897,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -5897,7 +5911,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -5917,7 +5931,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>260</v>
       </c>
@@ -5937,7 +5951,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>11</v>
       </c>
@@ -5951,7 +5965,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>265</v>
       </c>
@@ -5971,7 +5985,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -5985,7 +5999,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -5999,7 +6013,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>16</v>
       </c>
@@ -6013,7 +6027,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>272</v>
       </c>
@@ -6050,17 +6064,17 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6080,7 +6094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>275</v>
       </c>
@@ -6100,7 +6114,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="C3" t="s">
         <v>11</v>
@@ -6115,7 +6129,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>208</v>
       </c>
@@ -6135,7 +6149,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="C6" t="s">
         <v>33</v>
@@ -6150,7 +6164,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>196</v>
       </c>
@@ -6170,7 +6184,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -6184,7 +6198,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -6198,7 +6212,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -6212,7 +6226,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>220</v>
       </c>
@@ -6232,7 +6246,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>228</v>
       </c>
@@ -6263,23 +6277,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E26" activeCellId="6" sqref="E2 E5 E8 E13:E14 E17:E18 E20:E21 E26:E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6299,7 +6313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>275</v>
       </c>
@@ -6319,7 +6333,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="C3" t="s">
         <v>11</v>
@@ -6334,7 +6348,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>208</v>
       </c>
@@ -6354,7 +6368,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>33</v>
       </c>
@@ -6368,7 +6382,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>294</v>
       </c>
@@ -6388,7 +6402,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -6402,7 +6416,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>297</v>
       </c>
@@ -6422,7 +6436,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>196</v>
       </c>
@@ -6442,7 +6456,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>33</v>
       </c>
@@ -6456,7 +6470,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -6470,7 +6484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>223</v>
       </c>
@@ -6487,7 +6501,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>303</v>
       </c>
@@ -6498,7 +6512,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>228</v>
       </c>
@@ -6518,7 +6532,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -6532,7 +6546,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -6546,7 +6560,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>283</v>
       </c>
@@ -6564,6 +6578,68 @@
       </c>
       <c r="F24" t="s">
         <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>308</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>311</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>312</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>313</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -6583,17 +6659,17 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -6613,7 +6689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -6634,7 +6710,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -6655,7 +6731,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -6676,7 +6752,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -6697,7 +6773,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -6718,7 +6794,7 @@
         <v>-0.11764705882352941</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -6739,34 +6815,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2">
         <f>SUM(C2:C8)</f>
@@ -6774,24 +6850,24 @@
       </c>
       <c r="D9" s="2">
         <f>SUM(D2:D8)</f>
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E9" s="2">
         <f>SUM(E2:E8)</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.47663551401869159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.48181818181818181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>8.4285714285714288</v>
+        <v>8.5714285714285712</v>
       </c>
       <c r="C10" s="2">
         <f>AVERAGE(C2:C8)</f>
@@ -6799,15 +6875,15 @@
       </c>
       <c r="D10" s="2">
         <f>AVERAGE(D2:D8)</f>
-        <v>15.285714285714286</v>
+        <v>15.714285714285714</v>
       </c>
       <c r="E10" s="2">
         <f>AVERAGE(E2:E8)</f>
-        <v>8</v>
+        <v>8.1428571428571423</v>
       </c>
       <c r="F10" s="6">
         <f>(D10-E10)/D10</f>
-        <v>0.47663551401869164</v>
+        <v>0.48181818181818181</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9192" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFE9767F-3500-4723-A7A5-85D6B6D4FFDE}"/>
+  <xr:revisionPtr revIDLastSave="9207" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C7DC69E-0A59-429E-97B3-C3B9FE2D9540}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="316">
   <si>
     <t>ROUND</t>
   </si>
@@ -984,6 +984,12 @@
   </si>
   <si>
     <t>Katie Boulter (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>EASTBOURNE INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>4-6 7-6(6) 7-5</t>
   </si>
 </sst>
 </file>
@@ -1247,7 +1253,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1337,7 +1343,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1831,7 +1837,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.35714285714285715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3320,6 +3326,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -3626,17 +3636,17 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3656,7 +3666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -3676,7 +3686,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -3690,7 +3700,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -3704,7 +3714,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -3724,7 +3734,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>21</v>
       </c>
@@ -3738,7 +3748,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>30</v>
       </c>
@@ -3752,7 +3762,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -3766,7 +3776,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -3780,7 +3790,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -3794,7 +3804,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -3814,7 +3824,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>12</v>
       </c>
@@ -3828,7 +3838,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -3842,7 +3852,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -3856,7 +3866,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>16</v>
       </c>
@@ -3870,7 +3880,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>17</v>
       </c>
@@ -3884,7 +3894,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -3904,7 +3914,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -3924,7 +3934,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -3944,7 +3954,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>21</v>
       </c>
@@ -3958,7 +3968,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -3978,7 +3988,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -3992,7 +4002,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -4006,7 +4016,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>16</v>
       </c>
@@ -4020,7 +4030,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>17</v>
       </c>
@@ -4034,7 +4044,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>105</v>
       </c>
@@ -4054,7 +4064,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -4068,7 +4078,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -4082,7 +4092,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -4114,17 +4124,17 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4144,7 +4154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -4164,7 +4174,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4178,7 +4188,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -4198,7 +4208,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -4212,7 +4222,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -4226,7 +4236,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -4240,7 +4250,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -4254,7 +4264,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -4274,7 +4284,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -4288,7 +4298,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -4302,7 +4312,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -4316,7 +4326,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -4336,7 +4346,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>131</v>
       </c>
@@ -4356,7 +4366,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>11</v>
       </c>
@@ -4370,7 +4380,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -4384,7 +4394,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>131</v>
       </c>
@@ -4404,7 +4414,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -4418,7 +4428,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -4432,7 +4442,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -4446,7 +4456,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>141</v>
       </c>
@@ -4466,7 +4476,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>21</v>
       </c>
@@ -4480,7 +4490,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>12</v>
       </c>
@@ -4494,7 +4504,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -4508,7 +4518,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -4522,7 +4532,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>147</v>
       </c>
@@ -4542,7 +4552,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -4556,7 +4566,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>151</v>
       </c>
@@ -4576,7 +4586,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -4590,7 +4600,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -4604,7 +4614,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -4618,7 +4628,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -4632,7 +4642,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -4646,7 +4656,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -4678,17 +4688,17 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4708,7 +4718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -4728,7 +4738,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -4748,7 +4758,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -4762,7 +4772,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -4776,7 +4786,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -4790,7 +4800,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>17</v>
       </c>
@@ -4821,17 +4831,17 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4851,7 +4861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>166</v>
       </c>
@@ -4871,7 +4881,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>167</v>
       </c>
@@ -4891,7 +4901,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -4905,7 +4915,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -4919,7 +4929,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -4939,7 +4949,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -4953,7 +4963,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -4967,7 +4977,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -4981,7 +4991,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>249</v>
       </c>
@@ -5001,7 +5011,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>176</v>
       </c>
@@ -5021,7 +5031,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -5035,7 +5045,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -5049,7 +5059,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5063,7 +5073,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5077,7 +5087,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>181</v>
       </c>
@@ -5097,7 +5107,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>11</v>
       </c>
@@ -5111,7 +5121,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -5125,7 +5135,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -5139,7 +5149,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>17</v>
       </c>
@@ -5153,7 +5163,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -5173,7 +5183,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>21</v>
       </c>
@@ -5187,7 +5197,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>30</v>
       </c>
@@ -5201,7 +5211,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>31</v>
       </c>
@@ -5215,7 +5225,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -5229,7 +5239,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -5243,7 +5253,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -5257,7 +5267,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>15</v>
       </c>
@@ -5271,7 +5281,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>16</v>
       </c>
@@ -5285,7 +5295,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>17</v>
       </c>
@@ -5299,7 +5309,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>196</v>
       </c>
@@ -5319,7 +5329,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>198</v>
       </c>
@@ -5339,7 +5349,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -5353,7 +5363,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -5367,7 +5377,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>203</v>
       </c>
@@ -5405,17 +5415,17 @@
       <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5435,7 +5445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>206</v>
       </c>
@@ -5455,7 +5465,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>208</v>
       </c>
@@ -5475,7 +5485,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -5489,7 +5499,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>213</v>
       </c>
@@ -5509,7 +5519,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>196</v>
       </c>
@@ -5529,7 +5539,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -5543,7 +5553,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>220</v>
       </c>
@@ -5563,7 +5573,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>223</v>
       </c>
@@ -5580,7 +5590,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>61</v>
       </c>
@@ -5591,7 +5601,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>228</v>
       </c>
@@ -5611,7 +5621,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5625,7 +5635,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5639,7 +5649,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>283</v>
       </c>
@@ -5659,7 +5669,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -5673,7 +5683,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -5687,7 +5697,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>235</v>
       </c>
@@ -5707,7 +5717,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>237</v>
       </c>
@@ -5727,7 +5737,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>33</v>
       </c>
@@ -5741,7 +5751,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>166</v>
       </c>
@@ -5761,7 +5771,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -5781,7 +5791,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>33</v>
       </c>
@@ -5795,7 +5805,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>243</v>
       </c>
@@ -5815,7 +5825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>11</v>
       </c>
@@ -5829,7 +5839,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -5843,7 +5853,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>250</v>
       </c>
@@ -5863,7 +5873,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>253</v>
       </c>
@@ -5883,7 +5893,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -5897,7 +5907,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -5911,7 +5921,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -5931,7 +5941,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>260</v>
       </c>
@@ -5951,7 +5961,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>11</v>
       </c>
@@ -5965,7 +5975,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>265</v>
       </c>
@@ -5985,7 +5995,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -5999,7 +6009,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -6013,7 +6023,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>16</v>
       </c>
@@ -6027,7 +6037,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>272</v>
       </c>
@@ -6064,17 +6074,17 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6094,7 +6104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>275</v>
       </c>
@@ -6114,7 +6124,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="C3" t="s">
         <v>11</v>
@@ -6129,7 +6139,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>208</v>
       </c>
@@ -6149,7 +6159,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="C6" t="s">
         <v>33</v>
@@ -6164,7 +6174,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>196</v>
       </c>
@@ -6184,7 +6194,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -6198,7 +6208,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -6212,7 +6222,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -6226,7 +6236,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>220</v>
       </c>
@@ -6246,7 +6256,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>228</v>
       </c>
@@ -6277,23 +6287,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" activeCellId="6" sqref="E2 E5 E8 E13:E14 E17:E18 E20:E21 E26:E28"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6313,7 +6323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>275</v>
       </c>
@@ -6333,7 +6343,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="C3" t="s">
         <v>11</v>
@@ -6348,7 +6358,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>208</v>
       </c>
@@ -6368,7 +6378,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>33</v>
       </c>
@@ -6382,7 +6392,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>294</v>
       </c>
@@ -6402,7 +6412,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -6416,7 +6426,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>297</v>
       </c>
@@ -6436,7 +6446,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>196</v>
       </c>
@@ -6456,7 +6466,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>33</v>
       </c>
@@ -6470,7 +6480,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -6484,7 +6494,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>223</v>
       </c>
@@ -6501,7 +6511,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>303</v>
       </c>
@@ -6512,7 +6522,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>228</v>
       </c>
@@ -6532,7 +6542,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -6546,7 +6556,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -6560,7 +6570,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>283</v>
       </c>
@@ -6580,7 +6590,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>166</v>
       </c>
@@ -6600,7 +6610,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -6614,7 +6624,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -6628,7 +6638,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -6640,6 +6650,54 @@
       </c>
       <c r="F29" t="s">
         <v>310</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>314</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>209</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>255</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" t="s">
+        <v>273</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -6659,17 +6717,17 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -6689,7 +6747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -6710,7 +6768,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -6731,7 +6789,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -6752,7 +6810,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -6773,7 +6831,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -6794,7 +6852,7 @@
         <v>-0.11764705882352941</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -6815,34 +6873,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2">
         <f>SUM(C2:C8)</f>
@@ -6850,24 +6908,24 @@
       </c>
       <c r="D9" s="2">
         <f>SUM(D2:D8)</f>
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E9" s="2">
         <f>SUM(E2:E8)</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.48181818181818181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.48214285714285715</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>8.5714285714285712</v>
+        <v>8.7142857142857135</v>
       </c>
       <c r="C10" s="2">
         <f>AVERAGE(C2:C8)</f>
@@ -6875,15 +6933,15 @@
       </c>
       <c r="D10" s="2">
         <f>AVERAGE(D2:D8)</f>
-        <v>15.714285714285714</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2">
         <f>AVERAGE(E2:E8)</f>
-        <v>8.1428571428571423</v>
+        <v>8.2857142857142865</v>
       </c>
       <c r="F10" s="6">
         <f>(D10-E10)/D10</f>
-        <v>0.48181818181818181</v>
+        <v>0.4821428571428571</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9207" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C7DC69E-0A59-429E-97B3-C3B9FE2D9540}"/>
+  <xr:revisionPtr revIDLastSave="9233" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B6D3922-D515-4BD3-8FF8-1F1E40928B7A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="321">
   <si>
     <t>ROUND</t>
   </si>
@@ -990,13 +990,28 @@
   </si>
   <si>
     <t>4-6 7-6(6) 7-5</t>
+  </si>
+  <si>
+    <t>Renata Zarazúa (MEXICO)</t>
+  </si>
+  <si>
+    <t>7-6(0) 6-3</t>
+  </si>
+  <si>
+    <t>6-2 5-7 6-2</t>
+  </si>
+  <si>
+    <t>Elise Mertens (BELGIUM)</t>
+  </si>
+  <si>
+    <t>Lulu Sun (NEW ZEALAND)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1032,8 +1047,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1050,6 +1072,11 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1060,12 +1087,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1074,10 +1102,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1253,7 +1283,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1343,7 +1373,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1837,7 +1867,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35714285714285715</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4827,8 +4857,8 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6287,10 +6317,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A16" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E38" activeCellId="9" sqref="E3 E6 E9 E11 E15 E22 E24 E29 E33 E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6631,7 +6661,7 @@
       <c r="D28" t="s">
         <v>312</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F28" t="s">
@@ -6686,7 +6716,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -6698,6 +6728,68 @@
       </c>
       <c r="F33" t="s">
         <v>271</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" t="s">
+        <v>316</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" t="s">
+        <v>319</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>194</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>320</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -6878,20 +6970,20 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>0.35714285714285715</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -6900,7 +6992,7 @@
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2">
         <f>SUM(C2:C8)</f>
@@ -6908,15 +7000,15 @@
       </c>
       <c r="D9" s="2">
         <f>SUM(D2:D8)</f>
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E9" s="2">
         <f>SUM(E2:E8)</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.48214285714285715</v>
+        <v>0.48245614035087719</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -6925,7 +7017,7 @@
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>8.7142857142857135</v>
+        <v>8.8571428571428577</v>
       </c>
       <c r="C10" s="2">
         <f>AVERAGE(C2:C8)</f>
@@ -6933,15 +7025,15 @@
       </c>
       <c r="D10" s="2">
         <f>AVERAGE(D2:D8)</f>
-        <v>16</v>
+        <v>16.285714285714285</v>
       </c>
       <c r="E10" s="2">
         <f>AVERAGE(E2:E8)</f>
-        <v>8.2857142857142865</v>
+        <v>8.4285714285714288</v>
       </c>
       <c r="F10" s="6">
         <f>(D10-E10)/D10</f>
-        <v>0.4821428571428571</v>
+        <v>0.48245614035087714</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9233" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B6D3922-D515-4BD3-8FF8-1F1E40928B7A}"/>
+  <xr:revisionPtr revIDLastSave="9274" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE565B8E-E47C-4353-8BFB-A631B7683E21}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="332">
   <si>
     <t>ROUND</t>
   </si>
@@ -1005,6 +1005,39 @@
   </si>
   <si>
     <t>Lulu Sun (NEW ZEALAND)</t>
+  </si>
+  <si>
+    <t>WASHINGTON OPEN</t>
+  </si>
+  <si>
+    <t>6-2 3-6 6-4</t>
+  </si>
+  <si>
+    <t>7-6(6)</t>
+  </si>
+  <si>
+    <t>Peyton Stearns (USA)</t>
+  </si>
+  <si>
+    <t>Paula Badosa (SPAIN)</t>
+  </si>
+  <si>
+    <t>4-6 7-5 6-4</t>
+  </si>
+  <si>
+    <t>Sonya Kenin (USA)</t>
+  </si>
+  <si>
+    <t>6-1 3-6 6-4</t>
+  </si>
+  <si>
+    <t>Yue Yuan (CHINA)</t>
+  </si>
+  <si>
+    <t>6-1 RETIRED</t>
+  </si>
+  <si>
+    <t>7-6(4) 7-6(5)</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1316,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1373,7 +1406,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1867,7 +1900,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.375</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3663,20 +3696,20 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3696,7 +3729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -3716,7 +3749,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -3730,7 +3763,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -3744,7 +3777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -3764,7 +3797,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>21</v>
       </c>
@@ -3778,7 +3811,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>30</v>
       </c>
@@ -3792,7 +3825,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -3806,7 +3839,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -3820,7 +3853,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -3834,7 +3867,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -3854,7 +3887,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>12</v>
       </c>
@@ -3868,7 +3901,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -3882,7 +3915,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -3896,7 +3929,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>16</v>
       </c>
@@ -3910,7 +3943,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>17</v>
       </c>
@@ -3924,7 +3957,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -3944,7 +3977,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -3964,7 +3997,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -3984,7 +4017,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>21</v>
       </c>
@@ -3998,7 +4031,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -4018,7 +4051,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -4032,7 +4065,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -4046,7 +4079,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>16</v>
       </c>
@@ -4060,7 +4093,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>17</v>
       </c>
@@ -4074,7 +4107,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>105</v>
       </c>
@@ -4094,7 +4127,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -4108,7 +4141,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -4122,7 +4155,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -4151,20 +4184,20 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4184,7 +4217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -4204,7 +4237,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4218,7 +4251,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -4238,7 +4271,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -4252,7 +4285,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -4266,7 +4299,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -4280,7 +4313,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -4294,7 +4327,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -4314,7 +4347,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -4328,7 +4361,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -4342,7 +4375,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -4356,7 +4389,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -4376,7 +4409,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>131</v>
       </c>
@@ -4396,7 +4429,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>11</v>
       </c>
@@ -4410,7 +4443,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -4424,7 +4457,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>131</v>
       </c>
@@ -4444,7 +4477,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -4458,7 +4491,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -4472,7 +4505,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -4486,7 +4519,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>141</v>
       </c>
@@ -4506,7 +4539,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>21</v>
       </c>
@@ -4520,7 +4553,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>12</v>
       </c>
@@ -4534,7 +4567,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -4548,7 +4581,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -4562,7 +4595,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>147</v>
       </c>
@@ -4582,7 +4615,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -4596,7 +4629,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>151</v>
       </c>
@@ -4616,7 +4649,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -4630,7 +4663,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -4644,7 +4677,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -4658,7 +4691,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -4672,7 +4705,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -4686,7 +4719,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -4715,20 +4748,20 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4748,7 +4781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -4768,7 +4801,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -4788,7 +4821,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -4802,7 +4835,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -4816,7 +4849,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -4830,7 +4863,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>17</v>
       </c>
@@ -4857,21 +4890,21 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4891,7 +4924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>166</v>
       </c>
@@ -4911,7 +4944,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>167</v>
       </c>
@@ -4931,7 +4964,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -4945,7 +4978,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -4959,7 +4992,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -4979,7 +5012,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -4993,7 +5026,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -5007,7 +5040,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -5021,7 +5054,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>249</v>
       </c>
@@ -5041,7 +5074,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>176</v>
       </c>
@@ -5061,7 +5094,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -5075,7 +5108,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -5089,7 +5122,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5103,7 +5136,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5117,7 +5150,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>181</v>
       </c>
@@ -5137,7 +5170,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>11</v>
       </c>
@@ -5151,7 +5184,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -5165,7 +5198,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -5179,7 +5212,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>17</v>
       </c>
@@ -5193,7 +5226,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -5213,7 +5246,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>21</v>
       </c>
@@ -5227,7 +5260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>30</v>
       </c>
@@ -5241,7 +5274,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>31</v>
       </c>
@@ -5255,7 +5288,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -5269,7 +5302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -5283,7 +5316,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -5297,7 +5330,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>15</v>
       </c>
@@ -5311,7 +5344,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>16</v>
       </c>
@@ -5325,7 +5358,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>17</v>
       </c>
@@ -5339,7 +5372,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>196</v>
       </c>
@@ -5359,7 +5392,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>198</v>
       </c>
@@ -5379,7 +5412,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -5393,7 +5426,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -5407,7 +5440,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>203</v>
       </c>
@@ -5442,20 +5475,20 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:B21"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5475,7 +5508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>206</v>
       </c>
@@ -5495,7 +5528,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>208</v>
       </c>
@@ -5515,7 +5548,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -5529,7 +5562,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>213</v>
       </c>
@@ -5549,7 +5582,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>196</v>
       </c>
@@ -5569,7 +5602,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -5583,7 +5616,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>220</v>
       </c>
@@ -5603,7 +5636,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>223</v>
       </c>
@@ -5620,7 +5653,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>61</v>
       </c>
@@ -5631,7 +5664,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>228</v>
       </c>
@@ -5651,7 +5684,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5665,7 +5698,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5679,7 +5712,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>283</v>
       </c>
@@ -5699,7 +5732,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -5713,7 +5746,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -5727,7 +5760,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>235</v>
       </c>
@@ -5747,7 +5780,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>237</v>
       </c>
@@ -5767,7 +5800,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>33</v>
       </c>
@@ -5781,7 +5814,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>166</v>
       </c>
@@ -5801,7 +5834,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -5821,7 +5854,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>33</v>
       </c>
@@ -5835,7 +5868,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>243</v>
       </c>
@@ -5855,7 +5888,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>11</v>
       </c>
@@ -5869,7 +5902,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -5883,7 +5916,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>250</v>
       </c>
@@ -5903,7 +5936,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>253</v>
       </c>
@@ -5923,7 +5956,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -5937,7 +5970,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -5951,7 +5984,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -5971,7 +6004,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>260</v>
       </c>
@@ -5991,7 +6024,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>11</v>
       </c>
@@ -6005,7 +6038,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>265</v>
       </c>
@@ -6025,7 +6058,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -6039,7 +6072,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -6053,7 +6086,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>16</v>
       </c>
@@ -6067,7 +6100,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>272</v>
       </c>
@@ -6101,20 +6134,20 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6134,7 +6167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>275</v>
       </c>
@@ -6154,7 +6187,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="C3" t="s">
         <v>11</v>
@@ -6169,7 +6202,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>208</v>
       </c>
@@ -6189,7 +6222,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="C6" t="s">
         <v>33</v>
@@ -6204,7 +6237,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>196</v>
       </c>
@@ -6224,7 +6257,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -6238,7 +6271,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -6252,7 +6285,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -6266,7 +6299,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>220</v>
       </c>
@@ -6286,7 +6319,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>228</v>
       </c>
@@ -6317,23 +6350,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E38" activeCellId="9" sqref="E3 E6 E9 E11 E15 E22 E24 E29 E33 E38"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6353,7 +6386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>275</v>
       </c>
@@ -6373,7 +6406,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="C3" t="s">
         <v>11</v>
@@ -6388,7 +6421,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>208</v>
       </c>
@@ -6408,7 +6441,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>33</v>
       </c>
@@ -6422,7 +6455,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>294</v>
       </c>
@@ -6442,7 +6475,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -6456,7 +6489,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>297</v>
       </c>
@@ -6476,7 +6509,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>196</v>
       </c>
@@ -6496,7 +6529,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>33</v>
       </c>
@@ -6510,7 +6543,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -6524,7 +6557,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>223</v>
       </c>
@@ -6541,7 +6574,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>303</v>
       </c>
@@ -6552,7 +6585,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>228</v>
       </c>
@@ -6572,7 +6605,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -6586,7 +6619,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -6600,7 +6633,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>283</v>
       </c>
@@ -6620,7 +6653,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>166</v>
       </c>
@@ -6640,7 +6673,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -6654,7 +6687,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -6668,7 +6701,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -6682,7 +6715,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>314</v>
       </c>
@@ -6702,7 +6735,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>11</v>
       </c>
@@ -6716,7 +6749,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -6730,7 +6763,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -6750,7 +6783,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>33</v>
       </c>
@@ -6764,7 +6797,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -6778,7 +6811,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>11</v>
       </c>
@@ -6790,6 +6823,122 @@
       </c>
       <c r="F38" t="s">
         <v>318</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>321</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>319</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>324</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" t="s">
+        <v>325</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" t="s">
+        <v>327</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>265</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>324</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>329</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" t="s">
+        <v>273</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -6809,17 +6958,17 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -6839,7 +6988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -6860,7 +7009,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -6881,7 +7030,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -6902,7 +7051,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -6923,7 +7072,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -6944,7 +7093,7 @@
         <v>-0.11764705882352941</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -6965,34 +7114,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2">
         <f>SUM(C2:C8)</f>
@@ -7000,24 +7149,24 @@
       </c>
       <c r="D9" s="2">
         <f>SUM(D2:D8)</f>
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E9" s="2">
         <f>SUM(E2:E8)</f>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.48245614035087719</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.48305084745762711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>8.8571428571428577</v>
+        <v>9.2857142857142865</v>
       </c>
       <c r="C10" s="2">
         <f>AVERAGE(C2:C8)</f>
@@ -7025,15 +7174,15 @@
       </c>
       <c r="D10" s="2">
         <f>AVERAGE(D2:D8)</f>
-        <v>16.285714285714285</v>
+        <v>16.857142857142858</v>
       </c>
       <c r="E10" s="2">
         <f>AVERAGE(E2:E8)</f>
-        <v>8.4285714285714288</v>
+        <v>8.7142857142857135</v>
       </c>
       <c r="F10" s="6">
         <f>(D10-E10)/D10</f>
-        <v>0.48245614035087714</v>
+        <v>0.48305084745762716</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9274" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE565B8E-E47C-4353-8BFB-A631B7683E21}"/>
+  <xr:revisionPtr revIDLastSave="9292" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0050D096-0627-4C0B-93B1-03C19C965652}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="335">
   <si>
     <t>ROUND</t>
   </si>
@@ -1038,6 +1038,15 @@
   </si>
   <si>
     <t>7-6(4) 7-6(5)</t>
+  </si>
+  <si>
+    <t>Jule Niemeier (GERMANY)</t>
+  </si>
+  <si>
+    <t>Rebecca Marino (CANADA)</t>
+  </si>
+  <si>
+    <t>Viktória Hrunčáková (SLOVAKIA)</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1325,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1900,7 +1909,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.4</c:v>
+                  <c:v>0.47826086956521741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3389,10 +3398,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -3699,17 +3704,17 @@
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3729,7 +3734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -3749,7 +3754,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -3763,7 +3768,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -3777,7 +3782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -3797,7 +3802,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>21</v>
       </c>
@@ -3811,7 +3816,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>30</v>
       </c>
@@ -3825,7 +3830,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -3839,7 +3844,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -3853,7 +3858,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -3867,7 +3872,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -3887,7 +3892,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>12</v>
       </c>
@@ -3901,7 +3906,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -3915,7 +3920,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -3929,7 +3934,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>16</v>
       </c>
@@ -3943,7 +3948,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>17</v>
       </c>
@@ -3957,7 +3962,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -3977,7 +3982,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -3997,7 +4002,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -4017,7 +4022,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>21</v>
       </c>
@@ -4031,7 +4036,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -4051,7 +4056,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -4065,7 +4070,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -4079,7 +4084,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>16</v>
       </c>
@@ -4093,7 +4098,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>17</v>
       </c>
@@ -4107,7 +4112,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>105</v>
       </c>
@@ -4127,7 +4132,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -4141,7 +4146,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -4155,7 +4160,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -4187,17 +4192,17 @@
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4217,7 +4222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -4237,7 +4242,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4251,7 +4256,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -4271,7 +4276,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -4285,7 +4290,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -4299,7 +4304,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -4313,7 +4318,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -4327,7 +4332,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -4347,7 +4352,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -4361,7 +4366,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -4375,7 +4380,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -4389,7 +4394,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -4409,7 +4414,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>131</v>
       </c>
@@ -4429,7 +4434,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>11</v>
       </c>
@@ -4443,7 +4448,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -4457,7 +4462,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>131</v>
       </c>
@@ -4477,7 +4482,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -4491,7 +4496,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -4505,7 +4510,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -4519,7 +4524,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>141</v>
       </c>
@@ -4539,7 +4544,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>21</v>
       </c>
@@ -4553,7 +4558,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>12</v>
       </c>
@@ -4567,7 +4572,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -4581,7 +4586,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -4595,7 +4600,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>147</v>
       </c>
@@ -4615,7 +4620,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -4629,7 +4634,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>151</v>
       </c>
@@ -4649,7 +4654,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -4663,7 +4668,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -4677,7 +4682,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -4691,7 +4696,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -4705,7 +4710,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -4719,7 +4724,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -4751,17 +4756,17 @@
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4781,7 +4786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -4801,7 +4806,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -4821,7 +4826,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -4835,7 +4840,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -4849,7 +4854,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -4863,7 +4868,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>17</v>
       </c>
@@ -4894,17 +4899,17 @@
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4924,7 +4929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>166</v>
       </c>
@@ -4944,7 +4949,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>167</v>
       </c>
@@ -4964,7 +4969,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -4978,7 +4983,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -4992,7 +4997,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -5012,7 +5017,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -5026,7 +5031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -5040,7 +5045,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -5054,7 +5059,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>249</v>
       </c>
@@ -5074,7 +5079,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>176</v>
       </c>
@@ -5094,7 +5099,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -5108,7 +5113,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -5122,7 +5127,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5136,7 +5141,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5150,7 +5155,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>181</v>
       </c>
@@ -5170,7 +5175,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>11</v>
       </c>
@@ -5184,7 +5189,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -5198,7 +5203,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -5212,7 +5217,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>17</v>
       </c>
@@ -5226,7 +5231,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -5246,7 +5251,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>21</v>
       </c>
@@ -5260,7 +5265,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>30</v>
       </c>
@@ -5274,7 +5279,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>31</v>
       </c>
@@ -5288,7 +5293,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -5302,7 +5307,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -5316,7 +5321,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -5330,7 +5335,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>15</v>
       </c>
@@ -5344,7 +5349,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>16</v>
       </c>
@@ -5358,7 +5363,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>17</v>
       </c>
@@ -5372,7 +5377,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>196</v>
       </c>
@@ -5392,7 +5397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>198</v>
       </c>
@@ -5412,7 +5417,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -5426,7 +5431,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -5440,7 +5445,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>203</v>
       </c>
@@ -5478,17 +5483,17 @@
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5508,7 +5513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>206</v>
       </c>
@@ -5528,7 +5533,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>208</v>
       </c>
@@ -5548,7 +5553,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -5562,7 +5567,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>213</v>
       </c>
@@ -5582,7 +5587,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>196</v>
       </c>
@@ -5602,7 +5607,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -5616,7 +5621,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>220</v>
       </c>
@@ -5636,7 +5641,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>223</v>
       </c>
@@ -5653,7 +5658,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>61</v>
       </c>
@@ -5664,7 +5669,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>228</v>
       </c>
@@ -5684,7 +5689,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5698,7 +5703,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5712,7 +5717,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>283</v>
       </c>
@@ -5732,7 +5737,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -5746,7 +5751,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -5760,7 +5765,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>235</v>
       </c>
@@ -5780,7 +5785,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>237</v>
       </c>
@@ -5800,7 +5805,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>33</v>
       </c>
@@ -5814,7 +5819,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>166</v>
       </c>
@@ -5834,7 +5839,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -5854,7 +5859,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>33</v>
       </c>
@@ -5868,7 +5873,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>243</v>
       </c>
@@ -5888,7 +5893,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>11</v>
       </c>
@@ -5902,7 +5907,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -5916,7 +5921,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>250</v>
       </c>
@@ -5936,7 +5941,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>253</v>
       </c>
@@ -5956,7 +5961,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -5970,7 +5975,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -5984,7 +5989,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -6004,7 +6009,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>260</v>
       </c>
@@ -6024,7 +6029,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>11</v>
       </c>
@@ -6038,7 +6043,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>265</v>
       </c>
@@ -6058,7 +6063,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -6072,7 +6077,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -6086,7 +6091,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>16</v>
       </c>
@@ -6100,7 +6105,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>272</v>
       </c>
@@ -6134,20 +6139,20 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6167,7 +6172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>275</v>
       </c>
@@ -6187,7 +6192,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="C3" t="s">
         <v>11</v>
@@ -6202,7 +6207,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>208</v>
       </c>
@@ -6222,7 +6227,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="C6" t="s">
         <v>33</v>
@@ -6237,7 +6242,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>196</v>
       </c>
@@ -6257,7 +6262,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -6271,7 +6276,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -6285,7 +6290,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -6299,7 +6304,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>220</v>
       </c>
@@ -6319,7 +6324,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>228</v>
       </c>
@@ -6350,23 +6355,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G34" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6386,7 +6391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>275</v>
       </c>
@@ -6406,7 +6411,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="C3" t="s">
         <v>11</v>
@@ -6421,7 +6426,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>208</v>
       </c>
@@ -6441,7 +6446,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>33</v>
       </c>
@@ -6455,7 +6460,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>294</v>
       </c>
@@ -6475,7 +6480,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -6489,7 +6494,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>297</v>
       </c>
@@ -6509,7 +6514,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>196</v>
       </c>
@@ -6529,7 +6534,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>33</v>
       </c>
@@ -6543,7 +6548,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -6557,7 +6562,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>223</v>
       </c>
@@ -6574,7 +6579,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>303</v>
       </c>
@@ -6585,7 +6590,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>228</v>
       </c>
@@ -6605,7 +6610,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -6619,7 +6624,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -6633,7 +6638,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>283</v>
       </c>
@@ -6653,7 +6658,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>166</v>
       </c>
@@ -6673,7 +6678,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -6687,7 +6692,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -6701,7 +6706,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -6715,7 +6720,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>314</v>
       </c>
@@ -6735,7 +6740,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>11</v>
       </c>
@@ -6749,7 +6754,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -6763,7 +6768,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -6783,7 +6788,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>33</v>
       </c>
@@ -6797,7 +6802,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -6811,7 +6816,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>11</v>
       </c>
@@ -6825,7 +6830,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>321</v>
       </c>
@@ -6845,7 +6850,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -6859,7 +6864,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -6873,7 +6878,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -6893,7 +6898,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>265</v>
       </c>
@@ -6913,7 +6918,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>11</v>
       </c>
@@ -6927,7 +6932,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>15</v>
       </c>
@@ -6939,6 +6944,48 @@
       </c>
       <c r="F48" t="s">
         <v>330</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>223</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" t="s">
+        <v>332</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C51" s="7"/>
+      <c r="D51" t="s">
+        <v>333</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C52" s="7"/>
+      <c r="D52" t="s">
+        <v>334</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -6955,20 +7002,20 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -6988,7 +7035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -7009,7 +7056,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -7030,7 +7077,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -7051,7 +7098,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -7072,7 +7119,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -7093,7 +7140,7 @@
         <v>-0.11764705882352941</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -7114,34 +7161,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>12</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.47826086956521741</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2">
         <f>SUM(C2:C8)</f>
@@ -7149,7 +7196,7 @@
       </c>
       <c r="D9" s="2">
         <f>SUM(D2:D8)</f>
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E9" s="2">
         <f>SUM(E2:E8)</f>
@@ -7157,16 +7204,16 @@
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.48305084745762711</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.49586776859504134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>9.2857142857142865</v>
+        <v>9.4285714285714288</v>
       </c>
       <c r="C10" s="2">
         <f>AVERAGE(C2:C8)</f>
@@ -7174,7 +7221,7 @@
       </c>
       <c r="D10" s="2">
         <f>AVERAGE(D2:D8)</f>
-        <v>16.857142857142858</v>
+        <v>17.285714285714285</v>
       </c>
       <c r="E10" s="2">
         <f>AVERAGE(E2:E8)</f>
@@ -7182,7 +7229,7 @@
       </c>
       <c r="F10" s="6">
         <f>(D10-E10)/D10</f>
-        <v>0.48305084745762716</v>
+        <v>0.49586776859504134</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9292" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0050D096-0627-4C0B-93B1-03C19C965652}"/>
+  <xr:revisionPtr revIDLastSave="9349" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4313A35A-4F18-4A9A-9BA1-FACB795FFDC0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="6735" yWindow="5595" windowWidth="28800" windowHeight="15285" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -20,9 +20,8 @@
     <sheet name="2022" sheetId="33" r:id="rId5"/>
     <sheet name="2023" sheetId="36" r:id="rId6"/>
     <sheet name="2024" sheetId="40" r:id="rId7"/>
-    <sheet name="Stats" sheetId="1" r:id="rId8"/>
-    <sheet name="Wins-Losses" sheetId="41" r:id="rId9"/>
-    <sheet name="Winning Percentile Range" sheetId="42" r:id="rId10"/>
+    <sheet name="2025" sheetId="43" r:id="rId8"/>
+    <sheet name="Stats" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="345">
   <si>
     <t>ROUND</t>
   </si>
@@ -1047,6 +1046,36 @@
   </si>
   <si>
     <t>Viktória Hrunčáková (SLOVAKIA)</t>
+  </si>
+  <si>
+    <t>Ekaterina Alexandrova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>7-6(4) 7-6(2)</t>
+  </si>
+  <si>
+    <t>Amanda Anisimova (USA)</t>
+  </si>
+  <si>
+    <t>SINGAPORE TENNIS OPEN</t>
+  </si>
+  <si>
+    <t>Cristina Bucșa (SPAIN)</t>
+  </si>
+  <si>
+    <t>5-7 7-5 7-5</t>
+  </si>
+  <si>
+    <t>DUBAI OPEN</t>
+  </si>
+  <si>
+    <t>Maria Sakkari (GREECE)</t>
+  </si>
+  <si>
+    <t>Karolína Muchová (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>7-6(6) 6-4</t>
   </si>
 </sst>
 </file>
@@ -1272,10 +1301,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$8</c:f>
+              <c:f>Stats!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2018</c:v>
                 </c:pt>
@@ -1297,15 +1326,18 @@
                 <c:pt idx="6">
                   <c:v>2024</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>2025</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$D$2:$D$8</c:f>
+              <c:f>Stats!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>22</c:v>
                 </c:pt>
@@ -1327,12 +1359,15 @@
                 <c:pt idx="6">
                   <c:v>23</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A9C1-409C-BFB2-61117C3D22C8}"/>
+              <c16:uniqueId val="{00000000-2885-4250-9765-66CCFC459B91}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1362,10 +1397,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$8</c:f>
+              <c:f>Stats!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2018</c:v>
                 </c:pt>
@@ -1387,15 +1422,18 @@
                 <c:pt idx="6">
                   <c:v>2024</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>2025</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$E$2:$E$8</c:f>
+              <c:f>Stats!$E$2:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -1417,12 +1455,15 @@
                 <c:pt idx="6">
                   <c:v>12</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A9C1-409C-BFB2-61117C3D22C8}"/>
+              <c16:uniqueId val="{00000001-2885-4250-9765-66CCFC459B91}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1724,6 +1765,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1917,7 +1963,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-985D-47F9-AA3F-FFBC4F7F9001}"/>
+              <c16:uniqueId val="{00000001-41E2-4939-B3AB-416473477058}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2219,6 +2265,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3308,47 +3359,31 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A0EC8FA6-0C58-467B-8992-B1F42B9B0C37}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{31576F11-5CBC-4059-9D4B-8BCB68099D2B}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A7D40EB-95EF-AEC0-EFDF-8A49F3937A5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD8672DF-11FC-ADD4-77E7-DC44D7F87035}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3361,27 +3396,30 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7728CBB-ECAC-90A4-C288-3101B1B6BA5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19DD07E5-C10A-76A0-0BC8-7FB9CC4F8DEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3389,13 +3427,17 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3704,17 +3746,17 @@
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3734,7 +3776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -3754,7 +3796,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -3768,7 +3810,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -3782,7 +3824,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -3802,7 +3844,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>21</v>
       </c>
@@ -3816,7 +3858,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>30</v>
       </c>
@@ -3830,7 +3872,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -3844,7 +3886,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -3858,7 +3900,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -3872,7 +3914,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -3892,7 +3934,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>12</v>
       </c>
@@ -3906,7 +3948,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -3920,7 +3962,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -3934,7 +3976,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>16</v>
       </c>
@@ -3948,7 +3990,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>17</v>
       </c>
@@ -3962,7 +4004,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -3982,7 +4024,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -4002,7 +4044,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -4022,7 +4064,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>21</v>
       </c>
@@ -4036,7 +4078,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -4056,7 +4098,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -4070,7 +4112,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -4084,7 +4126,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>16</v>
       </c>
@@ -4098,7 +4140,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>17</v>
       </c>
@@ -4112,7 +4154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>105</v>
       </c>
@@ -4132,7 +4174,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -4146,7 +4188,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -4160,7 +4202,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -4192,17 +4234,17 @@
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4222,7 +4264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -4242,7 +4284,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4256,7 +4298,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -4276,7 +4318,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -4290,7 +4332,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -4304,7 +4346,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -4318,7 +4360,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -4332,7 +4374,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -4352,7 +4394,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -4366,7 +4408,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -4380,7 +4422,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -4394,7 +4436,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -4414,7 +4456,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>131</v>
       </c>
@@ -4434,7 +4476,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>11</v>
       </c>
@@ -4448,7 +4490,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -4462,7 +4504,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>131</v>
       </c>
@@ -4482,7 +4524,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -4496,7 +4538,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -4510,7 +4552,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -4524,7 +4566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>141</v>
       </c>
@@ -4544,7 +4586,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>21</v>
       </c>
@@ -4558,7 +4600,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>12</v>
       </c>
@@ -4572,7 +4614,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -4586,7 +4628,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -4600,7 +4642,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>147</v>
       </c>
@@ -4620,7 +4662,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -4634,7 +4676,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>151</v>
       </c>
@@ -4654,7 +4696,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -4668,7 +4710,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -4682,7 +4724,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -4696,7 +4738,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -4710,7 +4752,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -4724,7 +4766,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -4756,17 +4798,17 @@
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4786,7 +4828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -4806,7 +4848,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -4826,7 +4868,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -4840,7 +4882,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -4854,7 +4896,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -4868,7 +4910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>17</v>
       </c>
@@ -4899,17 +4941,17 @@
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4929,7 +4971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>166</v>
       </c>
@@ -4949,7 +4991,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>167</v>
       </c>
@@ -4969,7 +5011,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -4983,7 +5025,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -4997,7 +5039,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -5017,7 +5059,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -5031,7 +5073,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -5045,7 +5087,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -5059,7 +5101,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>249</v>
       </c>
@@ -5079,7 +5121,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>176</v>
       </c>
@@ -5099,7 +5141,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -5113,7 +5155,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -5127,7 +5169,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5141,7 +5183,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5155,7 +5197,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>181</v>
       </c>
@@ -5175,7 +5217,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>11</v>
       </c>
@@ -5189,7 +5231,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -5203,7 +5245,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -5217,7 +5259,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>17</v>
       </c>
@@ -5231,7 +5273,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -5251,7 +5293,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>21</v>
       </c>
@@ -5265,7 +5307,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>30</v>
       </c>
@@ -5279,7 +5321,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>31</v>
       </c>
@@ -5293,7 +5335,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -5307,7 +5349,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -5321,7 +5363,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -5335,7 +5377,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>15</v>
       </c>
@@ -5349,7 +5391,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>16</v>
       </c>
@@ -5363,7 +5405,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>17</v>
       </c>
@@ -5377,7 +5419,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>196</v>
       </c>
@@ -5397,7 +5439,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>198</v>
       </c>
@@ -5417,7 +5459,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -5431,7 +5473,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -5445,7 +5487,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>203</v>
       </c>
@@ -5479,21 +5521,21 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5513,7 +5555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>206</v>
       </c>
@@ -5533,7 +5575,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>208</v>
       </c>
@@ -5553,7 +5595,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -5567,7 +5609,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>213</v>
       </c>
@@ -5587,7 +5629,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>196</v>
       </c>
@@ -5607,7 +5649,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -5621,7 +5663,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>220</v>
       </c>
@@ -5641,7 +5683,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>223</v>
       </c>
@@ -5658,7 +5700,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>61</v>
       </c>
@@ -5669,7 +5711,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>228</v>
       </c>
@@ -5689,7 +5731,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5703,7 +5745,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5717,7 +5759,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>283</v>
       </c>
@@ -5737,7 +5779,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -5751,7 +5793,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -5765,7 +5807,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>235</v>
       </c>
@@ -5785,7 +5827,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>237</v>
       </c>
@@ -5805,7 +5847,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>33</v>
       </c>
@@ -5819,7 +5861,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>166</v>
       </c>
@@ -5839,7 +5881,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -5859,7 +5901,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>33</v>
       </c>
@@ -5873,7 +5915,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>243</v>
       </c>
@@ -5893,7 +5935,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>11</v>
       </c>
@@ -5907,7 +5949,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -5921,7 +5963,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>250</v>
       </c>
@@ -5941,7 +5983,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>253</v>
       </c>
@@ -5961,7 +6003,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -5975,7 +6017,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -5989,7 +6031,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -6009,7 +6051,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>260</v>
       </c>
@@ -6029,7 +6071,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>11</v>
       </c>
@@ -6043,7 +6085,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>265</v>
       </c>
@@ -6063,7 +6105,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -6077,7 +6119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -6091,7 +6133,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>16</v>
       </c>
@@ -6105,7 +6147,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>272</v>
       </c>
@@ -6139,20 +6181,20 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6172,7 +6214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>275</v>
       </c>
@@ -6192,7 +6234,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="C3" t="s">
         <v>11</v>
@@ -6207,7 +6249,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>208</v>
       </c>
@@ -6227,7 +6269,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="C6" t="s">
         <v>33</v>
@@ -6242,7 +6284,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>196</v>
       </c>
@@ -6262,7 +6304,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -6276,7 +6318,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -6290,7 +6332,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -6304,7 +6346,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>220</v>
       </c>
@@ -6324,7 +6366,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>228</v>
       </c>
@@ -6357,21 +6399,21 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G34" sqref="G1:H1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6391,7 +6433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>275</v>
       </c>
@@ -6411,7 +6453,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="C3" t="s">
         <v>11</v>
@@ -6426,7 +6468,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>208</v>
       </c>
@@ -6446,7 +6488,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>33</v>
       </c>
@@ -6460,7 +6502,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>294</v>
       </c>
@@ -6480,7 +6522,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -6494,7 +6536,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>297</v>
       </c>
@@ -6514,7 +6556,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>196</v>
       </c>
@@ -6534,7 +6576,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>33</v>
       </c>
@@ -6548,7 +6590,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -6562,7 +6604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>223</v>
       </c>
@@ -6579,7 +6621,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>303</v>
       </c>
@@ -6590,7 +6632,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>228</v>
       </c>
@@ -6610,7 +6652,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -6624,7 +6666,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -6638,7 +6680,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>283</v>
       </c>
@@ -6658,7 +6700,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>166</v>
       </c>
@@ -6678,7 +6720,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -6692,7 +6734,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -6706,7 +6748,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -6720,7 +6762,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>314</v>
       </c>
@@ -6740,7 +6782,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>11</v>
       </c>
@@ -6754,7 +6796,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -6768,7 +6810,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -6788,7 +6830,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>33</v>
       </c>
@@ -6802,7 +6844,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -6816,7 +6858,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>11</v>
       </c>
@@ -6830,7 +6872,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>321</v>
       </c>
@@ -6850,7 +6892,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -6864,7 +6906,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -6878,7 +6920,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -6898,7 +6940,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>265</v>
       </c>
@@ -6918,7 +6960,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>11</v>
       </c>
@@ -6932,7 +6974,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>15</v>
       </c>
@@ -6946,7 +6988,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>223</v>
       </c>
@@ -6964,7 +7006,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" s="7"/>
       <c r="D51" t="s">
         <v>333</v>
@@ -6976,7 +7018,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" s="7"/>
       <c r="D52" t="s">
         <v>334</v>
@@ -6995,27 +7037,216 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B81CB296-36A4-4A49-A279-2841893BFBFB}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>339</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>335</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>341</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>342</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>344</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -7035,7 +7266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -7056,7 +7287,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -7077,7 +7308,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -7094,11 +7325,11 @@
         <v>2</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F8" si="0">(D4-E4)/D4</f>
+        <f t="shared" ref="F4:F9" si="0">(D4-E4)/D4</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -7119,7 +7350,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -7140,7 +7371,7 @@
         <v>-0.11764705882352941</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -7161,7 +7392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -7182,58 +7413,79 @@
         <v>0.47826086956521741</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2025</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2">
-        <f>SUM(B2:B8)</f>
+      <c r="B10" s="2">
+        <f>SUM(B2:B9)</f>
+        <v>71</v>
+      </c>
+      <c r="C10" s="2">
+        <f>SUM(C2:C9)</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <f>SUM(D2:D9)</f>
+        <v>124</v>
+      </c>
+      <c r="E10" s="2">
+        <f>SUM(E2:E9)</f>
         <v>66</v>
-      </c>
-      <c r="C9" s="2">
-        <f>SUM(C2:C8)</f>
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <f>SUM(D2:D8)</f>
-        <v>121</v>
-      </c>
-      <c r="E9" s="2">
-        <f>SUM(E2:E8)</f>
-        <v>61</v>
-      </c>
-      <c r="F9" s="6">
-        <f>(D9-E9)/D9</f>
-        <v>0.49586776859504134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="2">
-        <f>AVERAGE(B2:B8)</f>
-        <v>9.4285714285714288</v>
-      </c>
-      <c r="C10" s="2">
-        <f>AVERAGE(C2:C8)</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="D10" s="2">
-        <f>AVERAGE(D2:D8)</f>
-        <v>17.285714285714285</v>
-      </c>
-      <c r="E10" s="2">
-        <f>AVERAGE(E2:E8)</f>
-        <v>8.7142857142857135</v>
       </c>
       <c r="F10" s="6">
         <f>(D10-E10)/D10</f>
-        <v>0.49586776859504134</v>
+        <v>0.46774193548387094</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="2">
+        <f>AVERAGE(B2:B9)</f>
+        <v>8.875</v>
+      </c>
+      <c r="C11" s="2">
+        <f>AVERAGE(C2:C9)</f>
+        <v>0.125</v>
+      </c>
+      <c r="D11" s="2">
+        <f>AVERAGE(D2:D9)</f>
+        <v>15.5</v>
+      </c>
+      <c r="E11" s="2">
+        <f>AVERAGE(E2:E9)</f>
+        <v>8.25</v>
+      </c>
+      <c r="F11" s="6">
+        <f>(D11-E11)/D11</f>
+        <v>0.46774193548387094</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F8">
+  <conditionalFormatting sqref="F2:F9">
     <cfRule type="iconSet" priority="41">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -7244,5 +7496,6 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9349" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4313A35A-4F18-4A9A-9BA1-FACB795FFDC0}"/>
+  <xr:revisionPtr revIDLastSave="9383" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26CCDC05-BBBE-40ED-9E34-0404A1A3D713}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6735" yWindow="5595" windowWidth="28800" windowHeight="15285" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="19860" yWindow="11115" windowWidth="19230" windowHeight="10455" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="351">
   <si>
     <t>ROUND</t>
   </si>
@@ -862,9 +862,6 @@
     <t>OSTRAVA OPEN</t>
   </si>
   <si>
-    <t>Daria Kasatkina (RUSSIA)</t>
-  </si>
-  <si>
     <t>6-3 7-6(4)</t>
   </si>
   <si>
@@ -1076,6 +1073,27 @@
   </si>
   <si>
     <t>7-6(6) 6-4</t>
+  </si>
+  <si>
+    <t>Sayaka Ishii (JAPAN)</t>
+  </si>
+  <si>
+    <t>7-6(6) 2-6 7-6(3)</t>
+  </si>
+  <si>
+    <t>6-1 3-0 RETIRED</t>
+  </si>
+  <si>
+    <t>6-4 6-7(3) 6-2</t>
+  </si>
+  <si>
+    <t>Emma Navarro (USA)</t>
+  </si>
+  <si>
+    <t>McCartney Kessler (USA)</t>
+  </si>
+  <si>
+    <t>Daria Kasatkina (AUSTRALIA)</t>
   </si>
 </sst>
 </file>
@@ -1360,7 +1378,7 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1456,7 +1474,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1902,10 +1920,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$8</c:f>
+              <c:f>Stats!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2018</c:v>
                 </c:pt>
@@ -1927,15 +1945,18 @@
                 <c:pt idx="6">
                   <c:v>2024</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>2025</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$F$2:$F$8</c:f>
+              <c:f>Stats!$F$2:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.72727272727272729</c:v>
                 </c:pt>
@@ -1956,6 +1977,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.47826086956521741</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.16666666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4281,7 +4305,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4845,7 +4869,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5761,7 +5785,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B21" t="s">
         <v>224</v>
@@ -6158,7 +6182,7 @@
         <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>273</v>
+        <v>350</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>14</v>
@@ -6216,7 +6240,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -6225,13 +6249,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6240,13 +6264,13 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6275,13 +6299,13 @@
         <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -6323,7 +6347,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -6343,7 +6367,7 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6363,7 +6387,7 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -6400,7 +6424,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6435,7 +6459,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -6444,13 +6468,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6459,13 +6483,13 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6479,7 +6503,7 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
@@ -6493,18 +6517,18 @@
         <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -6513,7 +6537,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -6527,7 +6551,7 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>14</v>
@@ -6538,7 +6562,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -6553,7 +6577,7 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6567,7 +6591,7 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>13</v>
@@ -6587,7 +6611,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -6595,7 +6619,7 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
@@ -6623,13 +6647,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -6643,7 +6667,7 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -6663,7 +6687,7 @@
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -6677,12 +6701,12 @@
         <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B24" t="s">
         <v>224</v>
@@ -6691,7 +6715,7 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
@@ -6711,7 +6735,7 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
@@ -6725,7 +6749,7 @@
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
@@ -6739,13 +6763,13 @@
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -6753,18 +6777,18 @@
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B31" t="s">
         <v>55</v>
@@ -6793,7 +6817,7 @@
         <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -6801,7 +6825,7 @@
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>273</v>
+        <v>350</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
@@ -6821,13 +6845,13 @@
         <v>31</v>
       </c>
       <c r="D35" t="s">
+        <v>315</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
         <v>316</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -6835,7 +6859,7 @@
         <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
@@ -6863,18 +6887,18 @@
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B40" t="s">
         <v>19</v>
@@ -6883,13 +6907,13 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -6897,13 +6921,13 @@
         <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -6911,13 +6935,13 @@
         <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -6931,13 +6955,13 @@
         <v>31</v>
       </c>
       <c r="D44" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -6951,13 +6975,13 @@
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -6965,7 +6989,7 @@
         <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>13</v>
@@ -6979,13 +7003,13 @@
         <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>273</v>
+        <v>350</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -6997,7 +7021,7 @@
       </c>
       <c r="C50" s="7"/>
       <c r="D50" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>13</v>
@@ -7009,19 +7033,19 @@
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" s="7"/>
       <c r="D51" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" s="7"/>
       <c r="D52" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>13</v>
@@ -7041,20 +7065,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -7088,13 +7112,13 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>335</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7102,7 +7126,7 @@
         <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
@@ -7127,7 +7151,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -7136,18 +7160,18 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -7167,7 +7191,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -7176,7 +7200,7 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
@@ -7187,7 +7211,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -7196,7 +7220,7 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
@@ -7210,13 +7234,106 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>268</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
         <v>344</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>348</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>349</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>336</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>255</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -7233,7 +7350,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7418,20 +7535,20 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>-0.66666666666666663</v>
+        <v>-0.16666666666666666</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -7440,7 +7557,7 @@
       </c>
       <c r="B10" s="2">
         <f>SUM(B2:B9)</f>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2">
         <f>SUM(C2:C9)</f>
@@ -7448,15 +7565,15 @@
       </c>
       <c r="D10" s="2">
         <f>SUM(D2:D9)</f>
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E10" s="2">
         <f>SUM(E2:E9)</f>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F10" s="6">
         <f>(D10-E10)/D10</f>
-        <v>0.46774193548387094</v>
+        <v>0.46456692913385828</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -7465,7 +7582,7 @@
       </c>
       <c r="B11" s="2">
         <f>AVERAGE(B2:B9)</f>
-        <v>8.875</v>
+        <v>9.125</v>
       </c>
       <c r="C11" s="2">
         <f>AVERAGE(C2:C9)</f>
@@ -7473,15 +7590,15 @@
       </c>
       <c r="D11" s="2">
         <f>AVERAGE(D2:D9)</f>
-        <v>15.5</v>
+        <v>15.875</v>
       </c>
       <c r="E11" s="2">
         <f>AVERAGE(E2:E9)</f>
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="F11" s="6">
         <f>(D11-E11)/D11</f>
-        <v>0.46774193548387094</v>
+        <v>0.46456692913385828</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9383" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26CCDC05-BBBE-40ED-9E34-0404A1A3D713}"/>
+  <xr:revisionPtr revIDLastSave="9488" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24D63E94-990C-4ED0-B6DF-BBF6783179B5}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="19860" yWindow="11115" windowWidth="19230" windowHeight="10455" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="370">
   <si>
     <t>ROUND</t>
   </si>
@@ -1094,6 +1094,63 @@
   </si>
   <si>
     <t>Daria Kasatkina (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>Suzan Lamens (NETHERLANDS)</t>
+  </si>
+  <si>
+    <t>7-6(4) 6-4</t>
+  </si>
+  <si>
+    <t>6-4 2-6 6-2</t>
+  </si>
+  <si>
+    <t>4-6 6-1 6-3</t>
+  </si>
+  <si>
+    <t>5-7 6-0 6-1</t>
+  </si>
+  <si>
+    <t>7-5 6-7(1) 6-3</t>
+  </si>
+  <si>
+    <t>Maya Joint (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>Jil Teichmann (SWITZERLAND)</t>
+  </si>
+  <si>
+    <t>Veronika Kudermetova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Danielle Collins (USA)</t>
+  </si>
+  <si>
+    <t>STRASBOURG GRAND PRIX</t>
+  </si>
+  <si>
+    <t>7-5 4-6 6-3</t>
+  </si>
+  <si>
+    <t>4-6 6-1 7-6(4)</t>
+  </si>
+  <si>
+    <t>6-7(5) 6-3 6-1</t>
+  </si>
+  <si>
+    <t>QUEEN'S CLUB CHAMPIONSHIPS</t>
+  </si>
+  <si>
+    <t>Rebecca Šramková (SLOVAKIA)</t>
+  </si>
+  <si>
+    <t>Qinwen Zheng (CHINA)</t>
+  </si>
+  <si>
+    <t>Ann Li (USA)</t>
+  </si>
+  <si>
+    <t>Mingge Xu (GREAT BRITAIN)</t>
   </si>
 </sst>
 </file>
@@ -1378,7 +1435,7 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1474,7 +1531,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1979,7 +2036,7 @@
                   <c:v>0.47826086956521741</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.16666666666666666</c:v>
+                  <c:v>0.22222222222222221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3460,10 +3517,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -6423,8 +6476,8 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7065,17 +7118,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E46" activeCellId="13" sqref="E4 E6 E8 E10 E13 E15 E21 E24 E29 E32 E35 E39 E42 E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
@@ -7267,6 +7320,9 @@
       <c r="A17" t="s">
         <v>220</v>
       </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
       <c r="C17" t="s">
         <v>31</v>
       </c>
@@ -7334,6 +7390,307 @@
       </c>
       <c r="F21" t="s">
         <v>347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>282</v>
+      </c>
+      <c r="B23" t="s">
+        <v>224</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>351</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>202</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B26" t="s">
+        <v>224</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>357</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>358</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>359</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>278</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B31" t="s">
+        <v>224</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>350</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>360</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>237</v>
+      </c>
+      <c r="B34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" t="s">
+        <v>204</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" t="s">
+        <v>231</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>338</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>366</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>367</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>368</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>357</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" t="s">
+        <v>369</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>300</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -7350,7 +7707,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7535,20 +7892,20 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>-0.16666666666666666</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -7557,7 +7914,7 @@
       </c>
       <c r="B10" s="2">
         <f>SUM(B2:B9)</f>
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2">
         <f>SUM(C2:C9)</f>
@@ -7565,15 +7922,15 @@
       </c>
       <c r="D10" s="2">
         <f>SUM(D2:D9)</f>
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E10" s="2">
         <f>SUM(E2:E9)</f>
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F10" s="6">
         <f>(D10-E10)/D10</f>
-        <v>0.46456692913385828</v>
+        <v>0.46043165467625902</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -7582,7 +7939,7 @@
       </c>
       <c r="B11" s="2">
         <f>AVERAGE(B2:B9)</f>
-        <v>9.125</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2">
         <f>AVERAGE(C2:C9)</f>
@@ -7590,15 +7947,15 @@
       </c>
       <c r="D11" s="2">
         <f>AVERAGE(D2:D9)</f>
-        <v>15.875</v>
+        <v>17.375</v>
       </c>
       <c r="E11" s="2">
         <f>AVERAGE(E2:E9)</f>
-        <v>8.5</v>
+        <v>9.375</v>
       </c>
       <c r="F11" s="6">
         <f>(D11-E11)/D11</f>
-        <v>0.46456692913385828</v>
+        <v>0.46043165467625902</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9488" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24D63E94-990C-4ED0-B6DF-BBF6783179B5}"/>
+  <xr:revisionPtr revIDLastSave="9544" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5B00D6A-C254-406A-8317-2106D1520B1E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="375">
   <si>
     <t>ROUND</t>
   </si>
@@ -1151,6 +1151,21 @@
   </si>
   <si>
     <t>Mingge Xu (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>Naomi Osaka (JAPAN)</t>
+  </si>
+  <si>
+    <t>Anna Kalinskaya (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Olga Danilović (SERBIA)</t>
+  </si>
+  <si>
+    <t>7-6(3) 4-6 7-6(5)</t>
+  </si>
+  <si>
+    <t>Janice Tjen (INDONESIA)</t>
   </si>
 </sst>
 </file>
@@ -1435,7 +1450,7 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1531,7 +1546,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2036,7 +2051,7 @@
                   <c:v>0.47826086956521741</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22222222222222221</c:v>
+                  <c:v>0.30769230769230771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5598,8 +5613,8 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6476,7 +6491,7 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -7118,10 +7133,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E46" activeCellId="13" sqref="E4 E6 E8 E10 E13 E15 E21 E24 E29 E32 E35 E39 E42 E46"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E62" activeCellId="17" sqref="E4 E6 E8 E10 E13 E15 E21 E24 E29 E32 E35 E39 E42 E46 E51 E55 E58 E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7691,6 +7706,198 @@
       </c>
       <c r="F46" t="s">
         <v>343</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>320</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
+        <v>202</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>370</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" t="s">
+        <v>341</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" t="s">
+        <v>371</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>250</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" t="s">
+        <v>31</v>
+      </c>
+      <c r="D53" t="s">
+        <v>283</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" t="s">
+        <v>323</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s">
+        <v>336</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>253</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" t="s">
+        <v>372</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>300</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" t="s">
+        <v>307</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" t="s">
+        <v>374</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" t="s">
+        <v>207</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -7892,20 +8099,20 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
+        <v>26</v>
+      </c>
+      <c r="E9">
         <v>18</v>
-      </c>
-      <c r="E9">
-        <v>14</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.30769230769230771</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -7914,7 +8121,7 @@
       </c>
       <c r="B10" s="2">
         <f>SUM(B2:B9)</f>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2">
         <f>SUM(C2:C9)</f>
@@ -7922,15 +8129,15 @@
       </c>
       <c r="D10" s="2">
         <f>SUM(D2:D9)</f>
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E10" s="2">
         <f>SUM(E2:E9)</f>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F10" s="6">
         <f>(D10-E10)/D10</f>
-        <v>0.46043165467625902</v>
+        <v>0.46258503401360546</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -7939,7 +8146,7 @@
       </c>
       <c r="B11" s="2">
         <f>AVERAGE(B2:B9)</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="C11" s="2">
         <f>AVERAGE(C2:C9)</f>
@@ -7947,15 +8154,15 @@
       </c>
       <c r="D11" s="2">
         <f>AVERAGE(D2:D9)</f>
-        <v>17.375</v>
+        <v>18.375</v>
       </c>
       <c r="E11" s="2">
         <f>AVERAGE(E2:E9)</f>
-        <v>9.375</v>
+        <v>9.875</v>
       </c>
       <c r="F11" s="6">
         <f>(D11-E11)/D11</f>
-        <v>0.46043165467625902</v>
+        <v>0.46258503401360546</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Emma Raducanu.xlsx
+++ b/Tennis/WTA Tour/Emma Raducanu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9544" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5B00D6A-C254-406A-8317-2106D1520B1E}"/>
+  <xr:revisionPtr revIDLastSave="9556" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62E2CFDC-894C-4DF2-8865-B2B4C413E9E1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="378">
   <si>
     <t>ROUND</t>
   </si>
@@ -1166,6 +1166,15 @@
   </si>
   <si>
     <t>Janice Tjen (INDONESIA)</t>
+  </si>
+  <si>
+    <t>Jacqueline Cristian (ROMANIA)</t>
+  </si>
+  <si>
+    <t>4-6 7-6(10) 6-1</t>
+  </si>
+  <si>
+    <t>Barbora Krejčíková (CZECH REPUBLIC)</t>
   </si>
 </sst>
 </file>
@@ -1450,7 +1459,7 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1546,7 +1555,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2051,7 +2060,7 @@
                   <c:v>0.47826086956521741</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.30769230769230771</c:v>
+                  <c:v>0.29629629629629628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3532,6 +3541,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -7133,10 +7146,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E62" activeCellId="17" sqref="E4 E6 E8 E10 E13 E15 E21 E24 E29 E32 E35 E39 E42 E46 E51 E55 E58 E62"/>
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7898,6 +7911,40 @@
       </c>
       <c r="F62" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>265</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" t="s">
+        <v>375</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s">
+        <v>377</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -8099,20 +8146,20 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>0.30769230769230771</v>
+        <v>0.29629629629629628</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8121,7 +8168,7 @@
       </c>
       <c r="B10" s="2">
         <f>SUM(B2:B9)</f>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C10" s="2">
         <f>SUM(C2:C9)</f>
@@ -8129,15 +8176,15 @@
       </c>
       <c r="D10" s="2">
         <f>SUM(D2:D9)</f>
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E10" s="2">
         <f>SUM(E2:E9)</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F10" s="6">
         <f>(D10-E10)/D10</f>
-        <v>0.46258503401360546</v>
+        <v>0.45945945945945948</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8146,7 +8193,7 @@
       </c>
       <c r="B11" s="2">
         <f>AVERAGE(B2:B9)</f>
-        <v>10.5</v>
+        <v>10.625</v>
       </c>
       <c r="C11" s="2">
         <f>AVERAGE(C2:C9)</f>
@@ -8154,15 +8201,15 @@
       </c>
       <c r="D11" s="2">
         <f>AVERAGE(D2:D9)</f>
-        <v>18.375</v>
+        <v>18.5</v>
       </c>
       <c r="E11" s="2">
         <f>AVERAGE(E2:E9)</f>
-        <v>9.875</v>
+        <v>10</v>
       </c>
       <c r="F11" s="6">
         <f>(D11-E11)/D11</f>
-        <v>0.46258503401360546</v>
+        <v>0.45945945945945948</v>
       </c>
     </row>
   </sheetData>
